--- a/files/separadas/repeat_p39.xlsx
+++ b/files/separadas/repeat_p39.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="210">
   <si>
     <t>p39_cod</t>
   </si>
@@ -59,18 +59,6 @@
   </si>
   <si>
     <t>_submission__tags</t>
-  </si>
-  <si>
-    <t>c1</t>
-  </si>
-  <si>
-    <t>c2</t>
-  </si>
-  <si>
-    <t>c3</t>
-  </si>
-  <si>
-    <t>nota_iniciativa</t>
   </si>
   <si>
     <t>Matriz de proyectos con bitácora de seguimiento</t>
@@ -1030,13 +1018,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S74"/>
+  <dimension ref="A1:O74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1082,31 +1070,19 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -1115,39 +1091,27 @@
         <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="J2" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="M2" t="s">
-        <v>212</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -1156,39 +1120,27 @@
         <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J3" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M3" t="s">
-        <v>212</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -1197,39 +1149,27 @@
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J4" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M4" t="s">
-        <v>212</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -1238,39 +1178,27 @@
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J5" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M5" t="s">
-        <v>212</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G6">
         <v>7</v>
@@ -1279,39 +1207,27 @@
         <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J6" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="M6" t="s">
-        <v>212</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G7">
         <v>9</v>
@@ -1320,39 +1236,27 @@
         <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="J7" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="M7" t="s">
-        <v>212</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -1361,39 +1265,27 @@
         <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="J8" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="M8" t="s">
-        <v>212</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -1402,39 +1294,27 @@
         <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="J9" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="M9" t="s">
-        <v>212</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -1443,39 +1323,27 @@
         <v>16</v>
       </c>
       <c r="I10" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="J10" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="M10" t="s">
-        <v>212</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G11">
         <v>11</v>
@@ -1484,39 +1352,27 @@
         <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="J11" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M11" t="s">
-        <v>212</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E12">
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G12">
         <v>12</v>
@@ -1525,39 +1381,27 @@
         <v>18</v>
       </c>
       <c r="I12" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J12" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="M12" t="s">
-        <v>212</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G13">
         <v>12</v>
@@ -1566,39 +1410,27 @@
         <v>18</v>
       </c>
       <c r="I13" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J13" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="M13" t="s">
-        <v>212</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E14">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G14">
         <v>13</v>
@@ -1607,39 +1439,27 @@
         <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="J14" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="M14" t="s">
-        <v>213</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G15">
         <v>13</v>
@@ -1648,39 +1468,27 @@
         <v>20</v>
       </c>
       <c r="I15" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="J15" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="M15" t="s">
-        <v>213</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E16">
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G16">
         <v>13</v>
@@ -1689,39 +1497,27 @@
         <v>20</v>
       </c>
       <c r="I16" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="J16" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="M16" t="s">
-        <v>213</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E17">
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G17">
         <v>14</v>
@@ -1730,39 +1526,27 @@
         <v>21</v>
       </c>
       <c r="I17" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="J17" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="M17" t="s">
-        <v>212</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E18">
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G18">
         <v>15</v>
@@ -1771,39 +1555,27 @@
         <v>22</v>
       </c>
       <c r="I18" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J18" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="M18" t="s">
-        <v>213</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E19">
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G19">
         <v>15</v>
@@ -1812,39 +1584,27 @@
         <v>22</v>
       </c>
       <c r="I19" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J19" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="M19" t="s">
-        <v>213</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E20">
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G20">
         <v>16</v>
@@ -1853,39 +1613,27 @@
         <v>25</v>
       </c>
       <c r="I20" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J20" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="M20" t="s">
-        <v>212</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E21">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G21">
         <v>17</v>
@@ -1894,39 +1642,27 @@
         <v>26</v>
       </c>
       <c r="I21" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="J21" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="M21" t="s">
-        <v>212</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E22">
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G22">
         <v>20</v>
@@ -1935,39 +1671,27 @@
         <v>33</v>
       </c>
       <c r="I22" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="J22" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="M22" t="s">
-        <v>212</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E23">
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G23">
         <v>20</v>
@@ -1976,39 +1700,27 @@
         <v>33</v>
       </c>
       <c r="I23" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="J23" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="M23" t="s">
-        <v>212</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E24">
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G24">
         <v>21</v>
@@ -2017,39 +1729,27 @@
         <v>34</v>
       </c>
       <c r="I24" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="J24" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="M24" t="s">
-        <v>212</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E25">
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G25">
         <v>22</v>
@@ -2058,39 +1758,27 @@
         <v>37</v>
       </c>
       <c r="I25" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J25" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="M25" t="s">
-        <v>212</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E26">
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G26">
         <v>23</v>
@@ -2099,39 +1787,27 @@
         <v>38</v>
       </c>
       <c r="I26" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J26" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M26" t="s">
-        <v>212</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E27">
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G27">
         <v>23</v>
@@ -2140,39 +1816,27 @@
         <v>38</v>
       </c>
       <c r="I27" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J27" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M27" t="s">
-        <v>212</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E28">
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G28">
         <v>23</v>
@@ -2181,39 +1845,27 @@
         <v>38</v>
       </c>
       <c r="I28" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J28" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M28" t="s">
-        <v>212</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E29">
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G29">
         <v>23</v>
@@ -2222,39 +1874,27 @@
         <v>38</v>
       </c>
       <c r="I29" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J29" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M29" t="s">
-        <v>212</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E30">
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G30">
         <v>23</v>
@@ -2263,39 +1903,27 @@
         <v>38</v>
       </c>
       <c r="I30" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J30" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M30" t="s">
-        <v>212</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E31">
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G31">
         <v>24</v>
@@ -2304,39 +1932,27 @@
         <v>51</v>
       </c>
       <c r="I31" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J31" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M31" t="s">
-        <v>213</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E32">
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G32">
         <v>24</v>
@@ -2345,39 +1961,27 @@
         <v>51</v>
       </c>
       <c r="I32" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J32" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M32" t="s">
-        <v>213</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E33">
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G33">
         <v>24</v>
@@ -2386,39 +1990,27 @@
         <v>51</v>
       </c>
       <c r="I33" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J33" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M33" t="s">
-        <v>213</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E34">
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G34">
         <v>27</v>
@@ -2427,39 +2019,27 @@
         <v>56</v>
       </c>
       <c r="I34" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="J34" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="M34" t="s">
-        <v>212</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E35">
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G35">
         <v>27</v>
@@ -2468,39 +2048,27 @@
         <v>56</v>
       </c>
       <c r="I35" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="J35" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="M35" t="s">
-        <v>212</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E36">
         <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G36">
         <v>28</v>
@@ -2509,39 +2077,27 @@
         <v>57</v>
       </c>
       <c r="I36" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J36" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="M36" t="s">
-        <v>212</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-      <c r="S36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E37">
         <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G37">
         <v>28</v>
@@ -2550,39 +2106,27 @@
         <v>57</v>
       </c>
       <c r="I37" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J37" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="M37" t="s">
-        <v>212</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E38">
         <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G38">
         <v>29</v>
@@ -2591,39 +2135,27 @@
         <v>58</v>
       </c>
       <c r="I38" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J38" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="M38" t="s">
-        <v>212</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E39">
         <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G39">
         <v>30</v>
@@ -2632,39 +2164,27 @@
         <v>59</v>
       </c>
       <c r="I39" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="J39" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M39" t="s">
-        <v>212</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E40">
         <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G40">
         <v>31</v>
@@ -2673,39 +2193,27 @@
         <v>60</v>
       </c>
       <c r="I40" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="J40" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="M40" t="s">
-        <v>212</v>
-      </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
-      <c r="R40">
-        <v>0</v>
-      </c>
-      <c r="S40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E41">
         <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G41">
         <v>31</v>
@@ -2714,39 +2222,27 @@
         <v>60</v>
       </c>
       <c r="I41" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="J41" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="M41" t="s">
-        <v>212</v>
-      </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>0</v>
-      </c>
-      <c r="R41">
-        <v>0</v>
-      </c>
-      <c r="S41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E42">
         <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G42">
         <v>32</v>
@@ -2755,39 +2251,27 @@
         <v>61</v>
       </c>
       <c r="I42" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="J42" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="M42" t="s">
-        <v>212</v>
-      </c>
-      <c r="P42">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="R42">
-        <v>0</v>
-      </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E43">
         <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G43">
         <v>32</v>
@@ -2796,39 +2280,27 @@
         <v>61</v>
       </c>
       <c r="I43" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="J43" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="M43" t="s">
-        <v>212</v>
-      </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>0</v>
-      </c>
-      <c r="R43">
-        <v>0</v>
-      </c>
-      <c r="S43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B44" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E44">
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G44">
         <v>32</v>
@@ -2837,39 +2309,27 @@
         <v>61</v>
       </c>
       <c r="I44" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="J44" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="M44" t="s">
-        <v>212</v>
-      </c>
-      <c r="P44">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-      <c r="R44">
-        <v>0</v>
-      </c>
-      <c r="S44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E45">
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G45">
         <v>33</v>
@@ -2878,39 +2338,27 @@
         <v>63</v>
       </c>
       <c r="I45" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J45" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M45" t="s">
-        <v>212</v>
-      </c>
-      <c r="P45">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>0</v>
-      </c>
-      <c r="R45">
-        <v>0</v>
-      </c>
-      <c r="S45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E46">
         <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G46">
         <v>34</v>
@@ -2919,39 +2367,27 @@
         <v>64</v>
       </c>
       <c r="I46" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="J46" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="M46" t="s">
-        <v>212</v>
-      </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-      <c r="R46">
-        <v>0</v>
-      </c>
-      <c r="S46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B47" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E47">
         <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G47">
         <v>36</v>
@@ -2960,39 +2396,27 @@
         <v>77</v>
       </c>
       <c r="I47" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J47" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="M47" t="s">
-        <v>212</v>
-      </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>0</v>
-      </c>
-      <c r="R47">
-        <v>0</v>
-      </c>
-      <c r="S47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E48">
         <v>47</v>
       </c>
       <c r="F48" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G48">
         <v>36</v>
@@ -3001,39 +2425,27 @@
         <v>77</v>
       </c>
       <c r="I48" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J48" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="M48" t="s">
-        <v>212</v>
-      </c>
-      <c r="P48">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>0</v>
-      </c>
-      <c r="R48">
-        <v>0</v>
-      </c>
-      <c r="S48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E49">
         <v>48</v>
       </c>
       <c r="F49" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G49">
         <v>37</v>
@@ -3042,39 +2454,27 @@
         <v>78</v>
       </c>
       <c r="I49" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J49" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="M49" t="s">
-        <v>212</v>
-      </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>0</v>
-      </c>
-      <c r="R49">
-        <v>0</v>
-      </c>
-      <c r="S49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E50">
         <v>49</v>
       </c>
       <c r="F50" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G50">
         <v>38</v>
@@ -3083,39 +2483,27 @@
         <v>80</v>
       </c>
       <c r="I50" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="J50" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="M50" t="s">
-        <v>212</v>
-      </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
-      <c r="R50">
-        <v>0</v>
-      </c>
-      <c r="S50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B51" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E51">
         <v>50</v>
       </c>
       <c r="F51" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G51">
         <v>39</v>
@@ -3124,39 +2512,27 @@
         <v>81</v>
       </c>
       <c r="I51" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="J51" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="M51" t="s">
-        <v>212</v>
-      </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
-      <c r="R51">
-        <v>0</v>
-      </c>
-      <c r="S51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E52">
         <v>51</v>
       </c>
       <c r="F52" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G52">
         <v>41</v>
@@ -3165,39 +2541,27 @@
         <v>83</v>
       </c>
       <c r="I52" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="J52" s="2">
         <v>45042.86403935185</v>
       </c>
       <c r="M52" t="s">
-        <v>212</v>
-      </c>
-      <c r="P52">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>0</v>
-      </c>
-      <c r="R52">
-        <v>0</v>
-      </c>
-      <c r="S52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B53" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E53">
         <v>52</v>
       </c>
       <c r="F53" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G53">
         <v>42</v>
@@ -3206,39 +2570,27 @@
         <v>84</v>
       </c>
       <c r="I53" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="J53" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="M53" t="s">
-        <v>212</v>
-      </c>
-      <c r="P53">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>0</v>
-      </c>
-      <c r="R53">
-        <v>0</v>
-      </c>
-      <c r="S53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B54" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E54">
         <v>53</v>
       </c>
       <c r="F54" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G54">
         <v>44</v>
@@ -3247,39 +2599,27 @@
         <v>87</v>
       </c>
       <c r="I54" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J54" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="M54" t="s">
-        <v>212</v>
-      </c>
-      <c r="P54">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>0</v>
-      </c>
-      <c r="R54">
-        <v>0</v>
-      </c>
-      <c r="S54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B55" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E55">
         <v>54</v>
       </c>
       <c r="F55" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G55">
         <v>45</v>
@@ -3288,39 +2628,27 @@
         <v>88</v>
       </c>
       <c r="I55" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="J55" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="M55" t="s">
-        <v>213</v>
-      </c>
-      <c r="P55">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>0</v>
-      </c>
-      <c r="R55">
-        <v>0</v>
-      </c>
-      <c r="S55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B56" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E56">
         <v>55</v>
       </c>
       <c r="F56" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G56">
         <v>46</v>
@@ -3329,39 +2657,27 @@
         <v>90</v>
       </c>
       <c r="I56" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="J56" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="M56" t="s">
-        <v>212</v>
-      </c>
-      <c r="P56">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>0</v>
-      </c>
-      <c r="R56">
-        <v>0</v>
-      </c>
-      <c r="S56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B57" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E57">
         <v>56</v>
       </c>
       <c r="F57" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G57">
         <v>46</v>
@@ -3370,39 +2686,27 @@
         <v>90</v>
       </c>
       <c r="I57" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="J57" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="M57" t="s">
-        <v>212</v>
-      </c>
-      <c r="P57">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>0</v>
-      </c>
-      <c r="R57">
-        <v>0</v>
-      </c>
-      <c r="S57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B58" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E58">
         <v>57</v>
       </c>
       <c r="F58" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G58">
         <v>50</v>
@@ -3411,39 +2715,27 @@
         <v>94</v>
       </c>
       <c r="I58" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J58" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="M58" t="s">
-        <v>212</v>
-      </c>
-      <c r="P58">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>0</v>
-      </c>
-      <c r="R58">
-        <v>0</v>
-      </c>
-      <c r="S58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B59" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E59">
         <v>58</v>
       </c>
       <c r="F59" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G59">
         <v>50</v>
@@ -3452,39 +2744,27 @@
         <v>94</v>
       </c>
       <c r="I59" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J59" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="M59" t="s">
-        <v>212</v>
-      </c>
-      <c r="P59">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <v>0</v>
-      </c>
-      <c r="R59">
-        <v>0</v>
-      </c>
-      <c r="S59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B60" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E60">
         <v>59</v>
       </c>
       <c r="F60" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G60">
         <v>50</v>
@@ -3493,39 +2773,27 @@
         <v>94</v>
       </c>
       <c r="I60" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J60" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="M60" t="s">
-        <v>212</v>
-      </c>
-      <c r="P60">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>0</v>
-      </c>
-      <c r="R60">
-        <v>0</v>
-      </c>
-      <c r="S60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B61" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E61">
         <v>60</v>
       </c>
       <c r="F61" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G61">
         <v>50</v>
@@ -3534,39 +2802,27 @@
         <v>94</v>
       </c>
       <c r="I61" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J61" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="M61" t="s">
-        <v>212</v>
-      </c>
-      <c r="P61">
-        <v>0</v>
-      </c>
-      <c r="Q61">
-        <v>0</v>
-      </c>
-      <c r="R61">
-        <v>0</v>
-      </c>
-      <c r="S61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B62" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E62">
         <v>61</v>
       </c>
       <c r="F62" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G62">
         <v>51</v>
@@ -3575,39 +2831,27 @@
         <v>95</v>
       </c>
       <c r="I62" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="J62" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M62" t="s">
-        <v>212</v>
-      </c>
-      <c r="P62">
-        <v>0</v>
-      </c>
-      <c r="Q62">
-        <v>0</v>
-      </c>
-      <c r="R62">
-        <v>0</v>
-      </c>
-      <c r="S62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B63" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E63">
         <v>62</v>
       </c>
       <c r="F63" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G63">
         <v>52</v>
@@ -3616,39 +2860,27 @@
         <v>96</v>
       </c>
       <c r="I63" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J63" s="2">
         <v>45044.89894675926</v>
       </c>
       <c r="M63" t="s">
-        <v>212</v>
-      </c>
-      <c r="P63">
-        <v>0</v>
-      </c>
-      <c r="Q63">
-        <v>0</v>
-      </c>
-      <c r="R63">
-        <v>0</v>
-      </c>
-      <c r="S63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B64" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E64">
         <v>63</v>
       </c>
       <c r="F64" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G64">
         <v>53</v>
@@ -3657,39 +2889,27 @@
         <v>98</v>
       </c>
       <c r="I64" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="J64" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="M64" t="s">
-        <v>213</v>
-      </c>
-      <c r="P64">
-        <v>0</v>
-      </c>
-      <c r="Q64">
-        <v>0</v>
-      </c>
-      <c r="R64">
-        <v>0</v>
-      </c>
-      <c r="S64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B65" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E65">
         <v>64</v>
       </c>
       <c r="F65" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G65">
         <v>54</v>
@@ -3698,39 +2918,27 @@
         <v>99</v>
       </c>
       <c r="I65" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J65" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="M65" t="s">
-        <v>212</v>
-      </c>
-      <c r="P65">
-        <v>0</v>
-      </c>
-      <c r="Q65">
-        <v>0</v>
-      </c>
-      <c r="R65">
-        <v>0</v>
-      </c>
-      <c r="S65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B66" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E66">
         <v>65</v>
       </c>
       <c r="F66" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G66">
         <v>55</v>
@@ -3739,39 +2947,27 @@
         <v>100</v>
       </c>
       <c r="I66" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J66" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="M66" t="s">
-        <v>212</v>
-      </c>
-      <c r="P66">
-        <v>0</v>
-      </c>
-      <c r="Q66">
-        <v>0</v>
-      </c>
-      <c r="R66">
-        <v>0</v>
-      </c>
-      <c r="S66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B67" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E67">
         <v>66</v>
       </c>
       <c r="F67" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G67">
         <v>57</v>
@@ -3780,39 +2976,27 @@
         <v>102</v>
       </c>
       <c r="I67" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J67" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="M67" t="s">
-        <v>212</v>
-      </c>
-      <c r="P67">
-        <v>0</v>
-      </c>
-      <c r="Q67">
-        <v>0</v>
-      </c>
-      <c r="R67">
-        <v>0</v>
-      </c>
-      <c r="S67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B68" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E68">
         <v>67</v>
       </c>
       <c r="F68" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G68">
         <v>60</v>
@@ -3821,39 +3005,27 @@
         <v>105</v>
       </c>
       <c r="I68" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="J68" s="2">
         <v>45045.13675925926</v>
       </c>
       <c r="M68" t="s">
-        <v>212</v>
-      </c>
-      <c r="P68">
-        <v>0</v>
-      </c>
-      <c r="Q68">
-        <v>0</v>
-      </c>
-      <c r="R68">
-        <v>0</v>
-      </c>
-      <c r="S68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B69" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E69">
         <v>68</v>
       </c>
       <c r="F69" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G69">
         <v>61</v>
@@ -3862,39 +3034,27 @@
         <v>106</v>
       </c>
       <c r="I69" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J69" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="M69" t="s">
-        <v>212</v>
-      </c>
-      <c r="P69">
-        <v>0</v>
-      </c>
-      <c r="Q69">
-        <v>0</v>
-      </c>
-      <c r="R69">
-        <v>0</v>
-      </c>
-      <c r="S69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B70" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E70">
         <v>69</v>
       </c>
       <c r="F70" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G70">
         <v>65</v>
@@ -3903,39 +3063,27 @@
         <v>111</v>
       </c>
       <c r="I70" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J70" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="M70" t="s">
-        <v>212</v>
-      </c>
-      <c r="P70">
-        <v>0</v>
-      </c>
-      <c r="Q70">
-        <v>0</v>
-      </c>
-      <c r="R70">
-        <v>0</v>
-      </c>
-      <c r="S70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B71" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E71">
         <v>70</v>
       </c>
       <c r="F71" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G71">
         <v>68</v>
@@ -3944,39 +3092,27 @@
         <v>115</v>
       </c>
       <c r="I71" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="J71" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="M71" t="s">
-        <v>213</v>
-      </c>
-      <c r="P71">
-        <v>0</v>
-      </c>
-      <c r="Q71">
-        <v>0</v>
-      </c>
-      <c r="R71">
-        <v>0</v>
-      </c>
-      <c r="S71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B72" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E72">
         <v>71</v>
       </c>
       <c r="F72" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G72">
         <v>71</v>
@@ -3985,39 +3121,27 @@
         <v>119</v>
       </c>
       <c r="I72" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J72" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="M72" t="s">
-        <v>212</v>
-      </c>
-      <c r="P72">
-        <v>0</v>
-      </c>
-      <c r="Q72">
-        <v>0</v>
-      </c>
-      <c r="R72">
-        <v>0</v>
-      </c>
-      <c r="S72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B73" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E73">
         <v>72</v>
       </c>
       <c r="F73" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G73">
         <v>71</v>
@@ -4026,39 +3150,27 @@
         <v>119</v>
       </c>
       <c r="I73" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J73" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="M73" t="s">
-        <v>212</v>
-      </c>
-      <c r="P73">
-        <v>0</v>
-      </c>
-      <c r="Q73">
-        <v>0</v>
-      </c>
-      <c r="R73">
-        <v>0</v>
-      </c>
-      <c r="S73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B74" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E74">
         <v>73</v>
       </c>
       <c r="F74" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G74">
         <v>71</v>
@@ -4067,25 +3179,13 @@
         <v>119</v>
       </c>
       <c r="I74" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J74" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="M74" t="s">
-        <v>212</v>
-      </c>
-      <c r="P74">
-        <v>0</v>
-      </c>
-      <c r="Q74">
-        <v>0</v>
-      </c>
-      <c r="R74">
-        <v>0</v>
-      </c>
-      <c r="S74">
-        <v>0</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/files/separadas/repeat_p39.xlsx
+++ b/files/separadas/repeat_p39.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="211">
   <si>
     <t>p39_cod</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>_submission__tags</t>
+  </si>
+  <si>
+    <t>nota_iniciativa</t>
   </si>
   <si>
     <t>Matriz de proyectos con bitácora de seguimiento</t>
@@ -1018,13 +1021,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O74"/>
+  <dimension ref="A1:P74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1070,19 +1073,22 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -1091,27 +1097,30 @@
         <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J2" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="M2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>209</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -1120,27 +1129,30 @@
         <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J3" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>209</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -1149,27 +1161,30 @@
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J4" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>209</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -1178,27 +1193,30 @@
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J5" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>209</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G6">
         <v>7</v>
@@ -1207,27 +1225,30 @@
         <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J6" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="M6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>209</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G7">
         <v>9</v>
@@ -1236,27 +1257,30 @@
         <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J7" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="M7" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>209</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -1265,27 +1289,30 @@
         <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J8" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="M8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>209</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -1294,27 +1321,30 @@
         <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J9" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="M9" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>209</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -1323,27 +1353,30 @@
         <v>16</v>
       </c>
       <c r="I10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J10" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="M10" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>209</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G11">
         <v>11</v>
@@ -1352,27 +1385,30 @@
         <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J11" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M11" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>209</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E12">
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G12">
         <v>12</v>
@@ -1381,27 +1417,30 @@
         <v>18</v>
       </c>
       <c r="I12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J12" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="M12" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>209</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G13">
         <v>12</v>
@@ -1410,27 +1449,30 @@
         <v>18</v>
       </c>
       <c r="I13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J13" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="M13" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>209</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E14">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G14">
         <v>13</v>
@@ -1439,27 +1481,30 @@
         <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J14" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="M14" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>210</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G15">
         <v>13</v>
@@ -1468,27 +1513,30 @@
         <v>20</v>
       </c>
       <c r="I15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J15" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="M15" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>210</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E16">
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G16">
         <v>13</v>
@@ -1497,27 +1545,30 @@
         <v>20</v>
       </c>
       <c r="I16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J16" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="M16" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>210</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E17">
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G17">
         <v>14</v>
@@ -1526,27 +1577,30 @@
         <v>21</v>
       </c>
       <c r="I17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J17" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="M17" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>209</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E18">
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G18">
         <v>15</v>
@@ -1555,27 +1609,30 @@
         <v>22</v>
       </c>
       <c r="I18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J18" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="M18" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>210</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E19">
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G19">
         <v>15</v>
@@ -1584,27 +1641,30 @@
         <v>22</v>
       </c>
       <c r="I19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J19" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="M19" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>210</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E20">
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G20">
         <v>16</v>
@@ -1613,27 +1673,30 @@
         <v>25</v>
       </c>
       <c r="I20" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J20" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="M20" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>209</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E21">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G21">
         <v>17</v>
@@ -1642,27 +1705,30 @@
         <v>26</v>
       </c>
       <c r="I21" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J21" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="M21" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>209</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E22">
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G22">
         <v>20</v>
@@ -1671,27 +1737,30 @@
         <v>33</v>
       </c>
       <c r="I22" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J22" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="M22" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>209</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E23">
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G23">
         <v>20</v>
@@ -1700,27 +1769,30 @@
         <v>33</v>
       </c>
       <c r="I23" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J23" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="M23" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>209</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E24">
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G24">
         <v>21</v>
@@ -1729,27 +1801,30 @@
         <v>34</v>
       </c>
       <c r="I24" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J24" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="M24" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>209</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E25">
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G25">
         <v>22</v>
@@ -1758,27 +1833,30 @@
         <v>37</v>
       </c>
       <c r="I25" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J25" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="M25" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>209</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E26">
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G26">
         <v>23</v>
@@ -1787,27 +1865,30 @@
         <v>38</v>
       </c>
       <c r="I26" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J26" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M26" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>209</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E27">
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G27">
         <v>23</v>
@@ -1816,27 +1897,30 @@
         <v>38</v>
       </c>
       <c r="I27" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J27" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M27" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>209</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E28">
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G28">
         <v>23</v>
@@ -1845,27 +1929,30 @@
         <v>38</v>
       </c>
       <c r="I28" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J28" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M28" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>209</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E29">
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G29">
         <v>23</v>
@@ -1874,27 +1961,30 @@
         <v>38</v>
       </c>
       <c r="I29" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J29" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M29" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>209</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E30">
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G30">
         <v>23</v>
@@ -1903,27 +1993,30 @@
         <v>38</v>
       </c>
       <c r="I30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J30" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M30" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>209</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E31">
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G31">
         <v>24</v>
@@ -1932,27 +2025,30 @@
         <v>51</v>
       </c>
       <c r="I31" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J31" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M31" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>210</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E32">
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G32">
         <v>24</v>
@@ -1961,27 +2057,30 @@
         <v>51</v>
       </c>
       <c r="I32" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J32" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M32" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>210</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E33">
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G33">
         <v>24</v>
@@ -1990,27 +2089,30 @@
         <v>51</v>
       </c>
       <c r="I33" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J33" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M33" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>210</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E34">
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G34">
         <v>27</v>
@@ -2019,27 +2121,30 @@
         <v>56</v>
       </c>
       <c r="I34" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J34" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="M34" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>209</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E35">
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G35">
         <v>27</v>
@@ -2048,27 +2153,30 @@
         <v>56</v>
       </c>
       <c r="I35" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J35" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="M35" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>209</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E36">
         <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G36">
         <v>28</v>
@@ -2077,27 +2185,30 @@
         <v>57</v>
       </c>
       <c r="I36" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J36" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="M36" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>209</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E37">
         <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G37">
         <v>28</v>
@@ -2106,27 +2217,30 @@
         <v>57</v>
       </c>
       <c r="I37" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J37" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="M37" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>209</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E38">
         <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G38">
         <v>29</v>
@@ -2135,27 +2249,30 @@
         <v>58</v>
       </c>
       <c r="I38" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J38" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="M38" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>209</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E39">
         <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G39">
         <v>30</v>
@@ -2164,27 +2281,30 @@
         <v>59</v>
       </c>
       <c r="I39" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J39" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M39" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>209</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E40">
         <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G40">
         <v>31</v>
@@ -2193,27 +2313,30 @@
         <v>60</v>
       </c>
       <c r="I40" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J40" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="M40" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>209</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E41">
         <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G41">
         <v>31</v>
@@ -2222,27 +2345,30 @@
         <v>60</v>
       </c>
       <c r="I41" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J41" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="M41" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>209</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B42" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E42">
         <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G42">
         <v>32</v>
@@ -2251,27 +2377,30 @@
         <v>61</v>
       </c>
       <c r="I42" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J42" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="M42" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>209</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B43" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E43">
         <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G43">
         <v>32</v>
@@ -2280,27 +2409,30 @@
         <v>61</v>
       </c>
       <c r="I43" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J43" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="M43" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>209</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B44" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E44">
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G44">
         <v>32</v>
@@ -2309,27 +2441,30 @@
         <v>61</v>
       </c>
       <c r="I44" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J44" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="M44" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>209</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B45" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E45">
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G45">
         <v>33</v>
@@ -2338,27 +2473,30 @@
         <v>63</v>
       </c>
       <c r="I45" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J45" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M45" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>209</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B46" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E46">
         <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G46">
         <v>34</v>
@@ -2367,27 +2505,30 @@
         <v>64</v>
       </c>
       <c r="I46" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J46" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="M46" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>209</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
       <c r="A47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B47" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E47">
         <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G47">
         <v>36</v>
@@ -2396,27 +2537,30 @@
         <v>77</v>
       </c>
       <c r="I47" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J47" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="M47" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>209</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B48" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E48">
         <v>47</v>
       </c>
       <c r="F48" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G48">
         <v>36</v>
@@ -2425,27 +2569,30 @@
         <v>77</v>
       </c>
       <c r="I48" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J48" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="M48" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>209</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
       <c r="A49" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B49" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E49">
         <v>48</v>
       </c>
       <c r="F49" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G49">
         <v>37</v>
@@ -2454,27 +2601,30 @@
         <v>78</v>
       </c>
       <c r="I49" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J49" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="M49" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>209</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
       <c r="A50" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B50" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E50">
         <v>49</v>
       </c>
       <c r="F50" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G50">
         <v>38</v>
@@ -2483,27 +2633,30 @@
         <v>80</v>
       </c>
       <c r="I50" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J50" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="M50" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>209</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B51" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E51">
         <v>50</v>
       </c>
       <c r="F51" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G51">
         <v>39</v>
@@ -2512,27 +2665,30 @@
         <v>81</v>
       </c>
       <c r="I51" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J51" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="M51" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>209</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
       <c r="A52" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B52" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E52">
         <v>51</v>
       </c>
       <c r="F52" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G52">
         <v>41</v>
@@ -2541,27 +2697,30 @@
         <v>83</v>
       </c>
       <c r="I52" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J52" s="2">
         <v>45042.86403935185</v>
       </c>
       <c r="M52" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>209</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
       <c r="A53" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B53" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E53">
         <v>52</v>
       </c>
       <c r="F53" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G53">
         <v>42</v>
@@ -2570,27 +2729,30 @@
         <v>84</v>
       </c>
       <c r="I53" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J53" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="M53" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>209</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
       <c r="A54" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B54" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E54">
         <v>53</v>
       </c>
       <c r="F54" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G54">
         <v>44</v>
@@ -2599,27 +2761,30 @@
         <v>87</v>
       </c>
       <c r="I54" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J54" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="M54" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>209</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
       <c r="A55" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B55" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E55">
         <v>54</v>
       </c>
       <c r="F55" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G55">
         <v>45</v>
@@ -2628,27 +2793,30 @@
         <v>88</v>
       </c>
       <c r="I55" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J55" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="M55" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>210</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
       <c r="A56" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B56" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E56">
         <v>55</v>
       </c>
       <c r="F56" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G56">
         <v>46</v>
@@ -2657,27 +2825,30 @@
         <v>90</v>
       </c>
       <c r="I56" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J56" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="M56" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>209</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
       <c r="A57" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B57" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E57">
         <v>56</v>
       </c>
       <c r="F57" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G57">
         <v>46</v>
@@ -2686,27 +2857,30 @@
         <v>90</v>
       </c>
       <c r="I57" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J57" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="M57" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>209</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
       <c r="A58" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B58" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E58">
         <v>57</v>
       </c>
       <c r="F58" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G58">
         <v>50</v>
@@ -2715,27 +2889,30 @@
         <v>94</v>
       </c>
       <c r="I58" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J58" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="M58" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
+        <v>209</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
       <c r="A59" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B59" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E59">
         <v>58</v>
       </c>
       <c r="F59" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G59">
         <v>50</v>
@@ -2744,27 +2921,30 @@
         <v>94</v>
       </c>
       <c r="I59" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J59" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="M59" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>209</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
       <c r="A60" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B60" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E60">
         <v>59</v>
       </c>
       <c r="F60" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G60">
         <v>50</v>
@@ -2773,27 +2953,30 @@
         <v>94</v>
       </c>
       <c r="I60" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J60" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="M60" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
+        <v>209</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
       <c r="A61" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B61" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E61">
         <v>60</v>
       </c>
       <c r="F61" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G61">
         <v>50</v>
@@ -2802,27 +2985,30 @@
         <v>94</v>
       </c>
       <c r="I61" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J61" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="M61" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
+        <v>209</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
       <c r="A62" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B62" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E62">
         <v>61</v>
       </c>
       <c r="F62" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G62">
         <v>51</v>
@@ -2831,27 +3017,30 @@
         <v>95</v>
       </c>
       <c r="I62" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J62" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M62" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
+        <v>209</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
       <c r="A63" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B63" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E63">
         <v>62</v>
       </c>
       <c r="F63" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G63">
         <v>52</v>
@@ -2860,27 +3049,30 @@
         <v>96</v>
       </c>
       <c r="I63" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J63" s="2">
         <v>45044.89894675926</v>
       </c>
       <c r="M63" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
+        <v>209</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
       <c r="A64" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B64" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E64">
         <v>63</v>
       </c>
       <c r="F64" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G64">
         <v>53</v>
@@ -2889,27 +3081,30 @@
         <v>98</v>
       </c>
       <c r="I64" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J64" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="M64" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
+        <v>210</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
       <c r="A65" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B65" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E65">
         <v>64</v>
       </c>
       <c r="F65" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G65">
         <v>54</v>
@@ -2918,27 +3113,30 @@
         <v>99</v>
       </c>
       <c r="I65" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J65" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="M65" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
+        <v>209</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
       <c r="A66" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B66" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E66">
         <v>65</v>
       </c>
       <c r="F66" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G66">
         <v>55</v>
@@ -2947,27 +3145,30 @@
         <v>100</v>
       </c>
       <c r="I66" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J66" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="M66" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
+        <v>209</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
       <c r="A67" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B67" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E67">
         <v>66</v>
       </c>
       <c r="F67" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G67">
         <v>57</v>
@@ -2976,27 +3177,30 @@
         <v>102</v>
       </c>
       <c r="I67" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J67" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="M67" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
+        <v>209</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
       <c r="A68" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B68" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E68">
         <v>67</v>
       </c>
       <c r="F68" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G68">
         <v>60</v>
@@ -3005,27 +3209,30 @@
         <v>105</v>
       </c>
       <c r="I68" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J68" s="2">
         <v>45045.13675925926</v>
       </c>
       <c r="M68" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
+        <v>209</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
       <c r="A69" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E69">
         <v>68</v>
       </c>
       <c r="F69" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G69">
         <v>61</v>
@@ -3034,27 +3241,30 @@
         <v>106</v>
       </c>
       <c r="I69" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J69" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="M69" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
+        <v>209</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
       <c r="A70" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B70" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E70">
         <v>69</v>
       </c>
       <c r="F70" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G70">
         <v>65</v>
@@ -3063,27 +3273,30 @@
         <v>111</v>
       </c>
       <c r="I70" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J70" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="M70" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
+        <v>209</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
       <c r="A71" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B71" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E71">
         <v>70</v>
       </c>
       <c r="F71" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G71">
         <v>68</v>
@@ -3092,27 +3305,30 @@
         <v>115</v>
       </c>
       <c r="I71" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J71" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="M71" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
+        <v>210</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
       <c r="A72" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B72" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E72">
         <v>71</v>
       </c>
       <c r="F72" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G72">
         <v>71</v>
@@ -3121,27 +3337,30 @@
         <v>119</v>
       </c>
       <c r="I72" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J72" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="M72" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
+        <v>209</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
       <c r="A73" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B73" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E73">
         <v>72</v>
       </c>
       <c r="F73" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G73">
         <v>71</v>
@@ -3150,27 +3369,30 @@
         <v>119</v>
       </c>
       <c r="I73" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J73" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="M73" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
+        <v>209</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
       <c r="A74" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B74" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E74">
         <v>73</v>
       </c>
       <c r="F74" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G74">
         <v>71</v>
@@ -3179,13 +3401,16 @@
         <v>119</v>
       </c>
       <c r="I74" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J74" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="M74" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/files/separadas/repeat_p39.xlsx
+++ b/files/separadas/repeat_p39.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="212">
   <si>
     <t>p39_cod</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>_submission__tags</t>
+  </si>
+  <si>
+    <t>c1</t>
   </si>
   <si>
     <t>nota_iniciativa</t>
@@ -1021,13 +1024,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P74"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1076,19 +1079,22 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -1097,30 +1103,33 @@
         <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J2" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="M2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -1129,30 +1138,33 @@
         <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J3" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -1161,30 +1173,33 @@
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J4" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -1193,30 +1208,33 @@
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J5" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G6">
         <v>7</v>
@@ -1225,30 +1243,33 @@
         <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J6" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="M6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G7">
         <v>9</v>
@@ -1257,30 +1278,33 @@
         <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J7" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="M7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -1289,30 +1313,33 @@
         <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J8" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="M8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -1321,30 +1348,33 @@
         <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J9" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="M9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -1353,30 +1383,33 @@
         <v>16</v>
       </c>
       <c r="I10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J10" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="M10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G11">
         <v>11</v>
@@ -1385,30 +1418,33 @@
         <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J11" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E12">
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G12">
         <v>12</v>
@@ -1417,30 +1453,33 @@
         <v>18</v>
       </c>
       <c r="I12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J12" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="M12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G13">
         <v>12</v>
@@ -1449,30 +1488,33 @@
         <v>18</v>
       </c>
       <c r="I13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J13" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="M13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E14">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G14">
         <v>13</v>
@@ -1481,30 +1523,33 @@
         <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J14" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="M14" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G15">
         <v>13</v>
@@ -1513,30 +1558,33 @@
         <v>20</v>
       </c>
       <c r="I15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J15" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="M15" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E16">
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G16">
         <v>13</v>
@@ -1545,30 +1593,33 @@
         <v>20</v>
       </c>
       <c r="I16" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J16" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="M16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E17">
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G17">
         <v>14</v>
@@ -1577,30 +1628,33 @@
         <v>21</v>
       </c>
       <c r="I17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J17" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="M17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E18">
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G18">
         <v>15</v>
@@ -1609,30 +1663,33 @@
         <v>22</v>
       </c>
       <c r="I18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J18" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="M18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E19">
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G19">
         <v>15</v>
@@ -1641,30 +1698,33 @@
         <v>22</v>
       </c>
       <c r="I19" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J19" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="M19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E20">
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G20">
         <v>16</v>
@@ -1673,30 +1733,33 @@
         <v>25</v>
       </c>
       <c r="I20" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J20" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="M20" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E21">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G21">
         <v>17</v>
@@ -1705,30 +1768,33 @@
         <v>26</v>
       </c>
       <c r="I21" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J21" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="M21" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E22">
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G22">
         <v>20</v>
@@ -1737,30 +1803,33 @@
         <v>33</v>
       </c>
       <c r="I22" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J22" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="M22" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E23">
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G23">
         <v>20</v>
@@ -1769,30 +1838,33 @@
         <v>33</v>
       </c>
       <c r="I23" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J23" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="M23" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E24">
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G24">
         <v>21</v>
@@ -1801,30 +1873,33 @@
         <v>34</v>
       </c>
       <c r="I24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J24" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="M24" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E25">
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G25">
         <v>22</v>
@@ -1833,30 +1908,33 @@
         <v>37</v>
       </c>
       <c r="I25" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J25" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="M25" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:16">
+      <c r="Q25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E26">
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G26">
         <v>23</v>
@@ -1865,30 +1943,33 @@
         <v>38</v>
       </c>
       <c r="I26" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J26" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M26" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:16">
+      <c r="Q26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E27">
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G27">
         <v>23</v>
@@ -1897,30 +1978,33 @@
         <v>38</v>
       </c>
       <c r="I27" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J27" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M27" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="Q27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E28">
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G28">
         <v>23</v>
@@ -1929,30 +2013,33 @@
         <v>38</v>
       </c>
       <c r="I28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J28" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M28" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:16">
+      <c r="Q28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E29">
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G29">
         <v>23</v>
@@ -1961,30 +2048,33 @@
         <v>38</v>
       </c>
       <c r="I29" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J29" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M29" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:16">
+      <c r="Q29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E30">
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G30">
         <v>23</v>
@@ -1993,30 +2083,33 @@
         <v>38</v>
       </c>
       <c r="I30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J30" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M30" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:16">
+      <c r="Q30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E31">
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G31">
         <v>24</v>
@@ -2025,30 +2118,33 @@
         <v>51</v>
       </c>
       <c r="I31" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J31" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M31" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:16">
+      <c r="Q31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E32">
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G32">
         <v>24</v>
@@ -2057,30 +2153,33 @@
         <v>51</v>
       </c>
       <c r="I32" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J32" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M32" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:16">
+      <c r="Q32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E33">
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G33">
         <v>24</v>
@@ -2089,30 +2188,33 @@
         <v>51</v>
       </c>
       <c r="I33" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J33" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M33" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:16">
+      <c r="Q33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E34">
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G34">
         <v>27</v>
@@ -2121,30 +2223,33 @@
         <v>56</v>
       </c>
       <c r="I34" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J34" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="M34" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:16">
+      <c r="Q34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E35">
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G35">
         <v>27</v>
@@ -2153,30 +2258,33 @@
         <v>56</v>
       </c>
       <c r="I35" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J35" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="M35" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:16">
+      <c r="Q35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E36">
         <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G36">
         <v>28</v>
@@ -2185,30 +2293,33 @@
         <v>57</v>
       </c>
       <c r="I36" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J36" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="M36" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:16">
+      <c r="Q36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E37">
         <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G37">
         <v>28</v>
@@ -2217,30 +2328,33 @@
         <v>57</v>
       </c>
       <c r="I37" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J37" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="M37" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:16">
+      <c r="Q37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B38" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E38">
         <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G38">
         <v>29</v>
@@ -2249,30 +2363,33 @@
         <v>58</v>
       </c>
       <c r="I38" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J38" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="M38" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:16">
+      <c r="Q38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E39">
         <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G39">
         <v>30</v>
@@ -2281,30 +2398,33 @@
         <v>59</v>
       </c>
       <c r="I39" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J39" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M39" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:16">
+      <c r="Q39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B40" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E40">
         <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G40">
         <v>31</v>
@@ -2313,30 +2433,33 @@
         <v>60</v>
       </c>
       <c r="I40" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J40" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="M40" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:16">
+      <c r="Q40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B41" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E41">
         <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G41">
         <v>31</v>
@@ -2345,30 +2468,33 @@
         <v>60</v>
       </c>
       <c r="I41" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J41" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="M41" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:16">
+      <c r="Q41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B42" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E42">
         <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G42">
         <v>32</v>
@@ -2377,30 +2503,33 @@
         <v>61</v>
       </c>
       <c r="I42" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J42" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="M42" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:16">
+      <c r="Q42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E43">
         <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G43">
         <v>32</v>
@@ -2409,30 +2538,33 @@
         <v>61</v>
       </c>
       <c r="I43" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J43" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="M43" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:16">
+      <c r="Q43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E44">
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G44">
         <v>32</v>
@@ -2441,30 +2573,33 @@
         <v>61</v>
       </c>
       <c r="I44" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J44" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="M44" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:16">
+      <c r="Q44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B45" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E45">
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G45">
         <v>33</v>
@@ -2473,30 +2608,33 @@
         <v>63</v>
       </c>
       <c r="I45" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J45" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M45" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:16">
+      <c r="Q45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B46" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E46">
         <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G46">
         <v>34</v>
@@ -2505,30 +2643,33 @@
         <v>64</v>
       </c>
       <c r="I46" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J46" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="M46" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:16">
+      <c r="Q46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B47" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E47">
         <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G47">
         <v>36</v>
@@ -2537,30 +2678,33 @@
         <v>77</v>
       </c>
       <c r="I47" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J47" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="M47" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:16">
+      <c r="Q47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B48" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E48">
         <v>47</v>
       </c>
       <c r="F48" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G48">
         <v>36</v>
@@ -2569,30 +2713,33 @@
         <v>77</v>
       </c>
       <c r="I48" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J48" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="M48" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:16">
+      <c r="Q48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B49" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E49">
         <v>48</v>
       </c>
       <c r="F49" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G49">
         <v>37</v>
@@ -2601,30 +2748,33 @@
         <v>78</v>
       </c>
       <c r="I49" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J49" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="M49" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:16">
+      <c r="Q49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B50" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E50">
         <v>49</v>
       </c>
       <c r="F50" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G50">
         <v>38</v>
@@ -2633,30 +2783,33 @@
         <v>80</v>
       </c>
       <c r="I50" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J50" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="M50" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:16">
+      <c r="Q50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B51" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E51">
         <v>50</v>
       </c>
       <c r="F51" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G51">
         <v>39</v>
@@ -2665,30 +2818,33 @@
         <v>81</v>
       </c>
       <c r="I51" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J51" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="M51" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:16">
+      <c r="Q51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B52" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E52">
         <v>51</v>
       </c>
       <c r="F52" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G52">
         <v>41</v>
@@ -2697,30 +2853,33 @@
         <v>83</v>
       </c>
       <c r="I52" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J52" s="2">
         <v>45042.86403935185</v>
       </c>
       <c r="M52" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:16">
+      <c r="Q52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B53" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E53">
         <v>52</v>
       </c>
       <c r="F53" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G53">
         <v>42</v>
@@ -2729,30 +2888,33 @@
         <v>84</v>
       </c>
       <c r="I53" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J53" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="M53" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:16">
+      <c r="Q53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B54" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E54">
         <v>53</v>
       </c>
       <c r="F54" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G54">
         <v>44</v>
@@ -2761,30 +2923,33 @@
         <v>87</v>
       </c>
       <c r="I54" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J54" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="M54" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:16">
+      <c r="Q54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B55" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E55">
         <v>54</v>
       </c>
       <c r="F55" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G55">
         <v>45</v>
@@ -2793,30 +2958,33 @@
         <v>88</v>
       </c>
       <c r="I55" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J55" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="M55" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:16">
+      <c r="Q55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B56" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E56">
         <v>55</v>
       </c>
       <c r="F56" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G56">
         <v>46</v>
@@ -2825,30 +2993,33 @@
         <v>90</v>
       </c>
       <c r="I56" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J56" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="M56" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:16">
+      <c r="Q56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B57" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E57">
         <v>56</v>
       </c>
       <c r="F57" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G57">
         <v>46</v>
@@ -2857,30 +3028,33 @@
         <v>90</v>
       </c>
       <c r="I57" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J57" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="M57" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:16">
+      <c r="Q57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B58" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E58">
         <v>57</v>
       </c>
       <c r="F58" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G58">
         <v>50</v>
@@ -2889,30 +3063,33 @@
         <v>94</v>
       </c>
       <c r="I58" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J58" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="M58" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:16">
+      <c r="Q58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
       <c r="A59" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B59" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E59">
         <v>58</v>
       </c>
       <c r="F59" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G59">
         <v>50</v>
@@ -2921,30 +3098,33 @@
         <v>94</v>
       </c>
       <c r="I59" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J59" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="M59" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:16">
+      <c r="Q59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
       <c r="A60" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B60" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E60">
         <v>59</v>
       </c>
       <c r="F60" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G60">
         <v>50</v>
@@ -2953,30 +3133,33 @@
         <v>94</v>
       </c>
       <c r="I60" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J60" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="M60" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:16">
+      <c r="Q60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
       <c r="A61" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B61" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E61">
         <v>60</v>
       </c>
       <c r="F61" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G61">
         <v>50</v>
@@ -2985,30 +3168,33 @@
         <v>94</v>
       </c>
       <c r="I61" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J61" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="M61" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:16">
+      <c r="Q61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
       <c r="A62" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B62" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E62">
         <v>61</v>
       </c>
       <c r="F62" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G62">
         <v>51</v>
@@ -3017,30 +3203,33 @@
         <v>95</v>
       </c>
       <c r="I62" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J62" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M62" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:16">
+      <c r="Q62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
       <c r="A63" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B63" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E63">
         <v>62</v>
       </c>
       <c r="F63" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G63">
         <v>52</v>
@@ -3049,30 +3238,33 @@
         <v>96</v>
       </c>
       <c r="I63" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J63" s="2">
         <v>45044.89894675926</v>
       </c>
       <c r="M63" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:16">
+      <c r="Q63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
       <c r="A64" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B64" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E64">
         <v>63</v>
       </c>
       <c r="F64" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G64">
         <v>53</v>
@@ -3081,30 +3273,33 @@
         <v>98</v>
       </c>
       <c r="I64" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J64" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="M64" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:16">
+      <c r="Q64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
       <c r="A65" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B65" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E65">
         <v>64</v>
       </c>
       <c r="F65" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G65">
         <v>54</v>
@@ -3113,30 +3308,33 @@
         <v>99</v>
       </c>
       <c r="I65" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J65" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="M65" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:16">
+      <c r="Q65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
       <c r="A66" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B66" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E66">
         <v>65</v>
       </c>
       <c r="F66" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G66">
         <v>55</v>
@@ -3145,30 +3343,33 @@
         <v>100</v>
       </c>
       <c r="I66" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J66" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="M66" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:16">
+      <c r="Q66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
       <c r="A67" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B67" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E67">
         <v>66</v>
       </c>
       <c r="F67" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G67">
         <v>57</v>
@@ -3177,30 +3378,33 @@
         <v>102</v>
       </c>
       <c r="I67" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J67" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="M67" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:16">
+      <c r="Q67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
       <c r="A68" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B68" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E68">
         <v>67</v>
       </c>
       <c r="F68" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G68">
         <v>60</v>
@@ -3209,30 +3413,33 @@
         <v>105</v>
       </c>
       <c r="I68" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J68" s="2">
         <v>45045.13675925926</v>
       </c>
       <c r="M68" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:16">
+      <c r="Q68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
       <c r="A69" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B69" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E69">
         <v>68</v>
       </c>
       <c r="F69" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G69">
         <v>61</v>
@@ -3241,30 +3448,33 @@
         <v>106</v>
       </c>
       <c r="I69" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J69" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="M69" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:16">
+      <c r="Q69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
       <c r="A70" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B70" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E70">
         <v>69</v>
       </c>
       <c r="F70" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G70">
         <v>64</v>
@@ -3273,30 +3483,33 @@
         <v>111</v>
       </c>
       <c r="I70" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J70" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="M70" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:16">
+      <c r="Q70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
       <c r="A71" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B71" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E71">
         <v>70</v>
       </c>
       <c r="F71" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G71">
         <v>67</v>
@@ -3305,30 +3518,33 @@
         <v>115</v>
       </c>
       <c r="I71" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J71" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="M71" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:16">
+      <c r="Q71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
       <c r="A72" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B72" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E72">
         <v>71</v>
       </c>
       <c r="F72" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G72">
         <v>70</v>
@@ -3337,30 +3553,33 @@
         <v>119</v>
       </c>
       <c r="I72" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J72" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="M72" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:16">
+      <c r="Q72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
       <c r="A73" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B73" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E73">
         <v>72</v>
       </c>
       <c r="F73" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G73">
         <v>70</v>
@@ -3369,30 +3588,33 @@
         <v>119</v>
       </c>
       <c r="I73" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J73" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="M73" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:16">
+      <c r="Q73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
       <c r="A74" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B74" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E74">
         <v>73</v>
       </c>
       <c r="F74" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G74">
         <v>70</v>
@@ -3401,15 +3623,18 @@
         <v>119</v>
       </c>
       <c r="I74" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J74" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="M74" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p39.xlsx
+++ b/files/separadas/repeat_p39.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="213">
   <si>
     <t>p39_cod</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>c1</t>
+  </si>
+  <si>
+    <t>l1</t>
   </si>
   <si>
     <t>nota_iniciativa</t>
@@ -1024,13 +1027,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q74"/>
+  <dimension ref="A1:R74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1082,19 +1085,22 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -1103,13 +1109,13 @@
         <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J2" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="M2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1117,19 +1123,22 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -1138,13 +1147,13 @@
         <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J3" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -1152,19 +1161,22 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -1173,13 +1185,13 @@
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J4" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -1187,19 +1199,22 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -1208,13 +1223,13 @@
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J5" s="2">
         <v>45026.55694444444</v>
       </c>
       <c r="M5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1222,19 +1237,22 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G6">
         <v>7</v>
@@ -1243,13 +1261,13 @@
         <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J6" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="M6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1257,19 +1275,22 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G7">
         <v>9</v>
@@ -1278,13 +1299,13 @@
         <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J7" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="M7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1292,19 +1313,22 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -1313,13 +1337,13 @@
         <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J8" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="M8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -1327,19 +1351,22 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -1348,13 +1375,13 @@
         <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J9" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="M9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1362,19 +1389,22 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -1383,13 +1413,13 @@
         <v>16</v>
       </c>
       <c r="I10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J10" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="M10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1397,19 +1427,22 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G11">
         <v>11</v>
@@ -1418,13 +1451,13 @@
         <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J11" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="M11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1432,19 +1465,22 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E12">
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G12">
         <v>12</v>
@@ -1453,13 +1489,13 @@
         <v>18</v>
       </c>
       <c r="I12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J12" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="M12" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1467,19 +1503,22 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G13">
         <v>12</v>
@@ -1488,13 +1527,13 @@
         <v>18</v>
       </c>
       <c r="I13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J13" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="M13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1502,19 +1541,22 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E14">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G14">
         <v>13</v>
@@ -1523,13 +1565,13 @@
         <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J14" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="M14" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1537,19 +1579,22 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G15">
         <v>13</v>
@@ -1558,13 +1603,13 @@
         <v>20</v>
       </c>
       <c r="I15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J15" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="M15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1572,19 +1617,22 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E16">
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G16">
         <v>13</v>
@@ -1593,13 +1641,13 @@
         <v>20</v>
       </c>
       <c r="I16" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J16" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="M16" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1607,19 +1655,22 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E17">
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G17">
         <v>14</v>
@@ -1628,13 +1679,13 @@
         <v>21</v>
       </c>
       <c r="I17" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J17" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="M17" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1642,19 +1693,22 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E18">
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G18">
         <v>15</v>
@@ -1663,13 +1717,13 @@
         <v>22</v>
       </c>
       <c r="I18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J18" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="M18" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1677,19 +1731,22 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E19">
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G19">
         <v>15</v>
@@ -1698,13 +1755,13 @@
         <v>22</v>
       </c>
       <c r="I19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J19" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="M19" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1712,19 +1769,22 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E20">
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G20">
         <v>16</v>
@@ -1733,13 +1793,13 @@
         <v>25</v>
       </c>
       <c r="I20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J20" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="M20" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1747,19 +1807,22 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E21">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G21">
         <v>17</v>
@@ -1768,13 +1831,13 @@
         <v>26</v>
       </c>
       <c r="I21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J21" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="M21" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -1782,19 +1845,22 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E22">
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G22">
         <v>20</v>
@@ -1803,13 +1869,13 @@
         <v>33</v>
       </c>
       <c r="I22" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J22" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="M22" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -1817,19 +1883,22 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E23">
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G23">
         <v>20</v>
@@ -1838,13 +1907,13 @@
         <v>33</v>
       </c>
       <c r="I23" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J23" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="M23" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -1852,19 +1921,22 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E24">
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G24">
         <v>21</v>
@@ -1873,13 +1945,13 @@
         <v>34</v>
       </c>
       <c r="I24" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J24" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="M24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -1887,19 +1959,22 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E25">
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G25">
         <v>22</v>
@@ -1908,13 +1983,13 @@
         <v>37</v>
       </c>
       <c r="I25" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J25" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="M25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -1922,19 +1997,22 @@
       <c r="Q25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="R25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E26">
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G26">
         <v>23</v>
@@ -1943,13 +2021,13 @@
         <v>38</v>
       </c>
       <c r="I26" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J26" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M26" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -1957,19 +2035,22 @@
       <c r="Q26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="R26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E27">
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G27">
         <v>23</v>
@@ -1978,13 +2059,13 @@
         <v>38</v>
       </c>
       <c r="I27" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J27" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M27" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -1992,19 +2073,22 @@
       <c r="Q27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="R27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E28">
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G28">
         <v>23</v>
@@ -2013,13 +2097,13 @@
         <v>38</v>
       </c>
       <c r="I28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J28" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M28" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -2027,19 +2111,22 @@
       <c r="Q28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:17">
+      <c r="R28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E29">
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G29">
         <v>23</v>
@@ -2048,13 +2135,13 @@
         <v>38</v>
       </c>
       <c r="I29" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J29" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M29" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -2062,19 +2149,22 @@
       <c r="Q29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:17">
+      <c r="R29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E30">
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G30">
         <v>23</v>
@@ -2083,13 +2173,13 @@
         <v>38</v>
       </c>
       <c r="I30" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J30" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="M30" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -2097,19 +2187,22 @@
       <c r="Q30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:17">
+      <c r="R30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B31" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E31">
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G31">
         <v>24</v>
@@ -2118,13 +2211,13 @@
         <v>51</v>
       </c>
       <c r="I31" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J31" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M31" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -2132,19 +2225,22 @@
       <c r="Q31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:17">
+      <c r="R31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E32">
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G32">
         <v>24</v>
@@ -2153,13 +2249,13 @@
         <v>51</v>
       </c>
       <c r="I32" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J32" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M32" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P32">
         <v>0</v>
@@ -2167,19 +2263,22 @@
       <c r="Q32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:17">
+      <c r="R32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E33">
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G33">
         <v>24</v>
@@ -2188,13 +2287,13 @@
         <v>51</v>
       </c>
       <c r="I33" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J33" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="M33" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P33">
         <v>0</v>
@@ -2202,19 +2301,22 @@
       <c r="Q33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:17">
+      <c r="R33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E34">
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G34">
         <v>27</v>
@@ -2223,13 +2325,13 @@
         <v>56</v>
       </c>
       <c r="I34" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J34" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="M34" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P34">
         <v>0</v>
@@ -2237,19 +2339,22 @@
       <c r="Q34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:17">
+      <c r="R34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E35">
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G35">
         <v>27</v>
@@ -2258,13 +2363,13 @@
         <v>56</v>
       </c>
       <c r="I35" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J35" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="M35" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P35">
         <v>0</v>
@@ -2272,19 +2377,22 @@
       <c r="Q35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:17">
+      <c r="R35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E36">
         <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G36">
         <v>28</v>
@@ -2293,13 +2401,13 @@
         <v>57</v>
       </c>
       <c r="I36" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J36" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="M36" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P36">
         <v>0</v>
@@ -2307,19 +2415,22 @@
       <c r="Q36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:17">
+      <c r="R36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E37">
         <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G37">
         <v>28</v>
@@ -2328,13 +2439,13 @@
         <v>57</v>
       </c>
       <c r="I37" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J37" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="M37" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P37">
         <v>0</v>
@@ -2342,19 +2453,22 @@
       <c r="Q37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:17">
+      <c r="R37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B38" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E38">
         <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G38">
         <v>29</v>
@@ -2363,13 +2477,13 @@
         <v>58</v>
       </c>
       <c r="I38" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J38" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="M38" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P38">
         <v>0</v>
@@ -2377,19 +2491,22 @@
       <c r="Q38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:17">
+      <c r="R38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B39" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E39">
         <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G39">
         <v>30</v>
@@ -2398,13 +2515,13 @@
         <v>59</v>
       </c>
       <c r="I39" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J39" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="M39" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P39">
         <v>0</v>
@@ -2412,19 +2529,22 @@
       <c r="Q39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:17">
+      <c r="R39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B40" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E40">
         <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G40">
         <v>31</v>
@@ -2433,13 +2553,13 @@
         <v>60</v>
       </c>
       <c r="I40" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J40" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="M40" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P40">
         <v>0</v>
@@ -2447,19 +2567,22 @@
       <c r="Q40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:17">
+      <c r="R40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E41">
         <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G41">
         <v>31</v>
@@ -2468,13 +2591,13 @@
         <v>60</v>
       </c>
       <c r="I41" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J41" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="M41" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P41">
         <v>0</v>
@@ -2482,19 +2605,22 @@
       <c r="Q41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:17">
+      <c r="R41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E42">
         <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G42">
         <v>32</v>
@@ -2503,13 +2629,13 @@
         <v>61</v>
       </c>
       <c r="I42" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J42" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="M42" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P42">
         <v>0</v>
@@ -2517,19 +2643,22 @@
       <c r="Q42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:17">
+      <c r="R42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E43">
         <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G43">
         <v>32</v>
@@ -2538,13 +2667,13 @@
         <v>61</v>
       </c>
       <c r="I43" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J43" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="M43" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P43">
         <v>0</v>
@@ -2552,19 +2681,22 @@
       <c r="Q43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:17">
+      <c r="R43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B44" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E44">
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G44">
         <v>32</v>
@@ -2573,13 +2705,13 @@
         <v>61</v>
       </c>
       <c r="I44" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J44" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="M44" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P44">
         <v>0</v>
@@ -2587,19 +2719,22 @@
       <c r="Q44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:17">
+      <c r="R44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B45" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E45">
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G45">
         <v>33</v>
@@ -2608,13 +2743,13 @@
         <v>63</v>
       </c>
       <c r="I45" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J45" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="M45" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P45">
         <v>0</v>
@@ -2622,19 +2757,22 @@
       <c r="Q45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:17">
+      <c r="R45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B46" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E46">
         <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G46">
         <v>34</v>
@@ -2643,13 +2781,13 @@
         <v>64</v>
       </c>
       <c r="I46" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J46" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="M46" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P46">
         <v>0</v>
@@ -2657,19 +2795,22 @@
       <c r="Q46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:17">
+      <c r="R46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B47" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E47">
         <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G47">
         <v>36</v>
@@ -2678,13 +2819,13 @@
         <v>77</v>
       </c>
       <c r="I47" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J47" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="M47" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P47">
         <v>0</v>
@@ -2692,19 +2833,22 @@
       <c r="Q47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:17">
+      <c r="R47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B48" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E48">
         <v>47</v>
       </c>
       <c r="F48" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G48">
         <v>36</v>
@@ -2713,13 +2857,13 @@
         <v>77</v>
       </c>
       <c r="I48" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J48" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="M48" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P48">
         <v>0</v>
@@ -2727,19 +2871,22 @@
       <c r="Q48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:17">
+      <c r="R48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B49" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E49">
         <v>48</v>
       </c>
       <c r="F49" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G49">
         <v>37</v>
@@ -2748,13 +2895,13 @@
         <v>78</v>
       </c>
       <c r="I49" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J49" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="M49" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P49">
         <v>0</v>
@@ -2762,19 +2909,22 @@
       <c r="Q49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:17">
+      <c r="R49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
       <c r="A50" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B50" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E50">
         <v>49</v>
       </c>
       <c r="F50" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G50">
         <v>38</v>
@@ -2783,13 +2933,13 @@
         <v>80</v>
       </c>
       <c r="I50" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J50" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="M50" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P50">
         <v>0</v>
@@ -2797,19 +2947,22 @@
       <c r="Q50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:17">
+      <c r="R50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B51" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E51">
         <v>50</v>
       </c>
       <c r="F51" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G51">
         <v>39</v>
@@ -2818,13 +2971,13 @@
         <v>81</v>
       </c>
       <c r="I51" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J51" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="M51" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P51">
         <v>0</v>
@@ -2832,19 +2985,22 @@
       <c r="Q51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:17">
+      <c r="R51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B52" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E52">
         <v>51</v>
       </c>
       <c r="F52" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G52">
         <v>41</v>
@@ -2853,13 +3009,13 @@
         <v>83</v>
       </c>
       <c r="I52" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J52" s="2">
         <v>45042.86403935185</v>
       </c>
       <c r="M52" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P52">
         <v>0</v>
@@ -2867,19 +3023,22 @@
       <c r="Q52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:17">
+      <c r="R52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B53" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E53">
         <v>52</v>
       </c>
       <c r="F53" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G53">
         <v>42</v>
@@ -2888,13 +3047,13 @@
         <v>84</v>
       </c>
       <c r="I53" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J53" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="M53" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P53">
         <v>0</v>
@@ -2902,19 +3061,22 @@
       <c r="Q53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:17">
+      <c r="R53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
       <c r="A54" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B54" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E54">
         <v>53</v>
       </c>
       <c r="F54" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G54">
         <v>44</v>
@@ -2923,13 +3085,13 @@
         <v>87</v>
       </c>
       <c r="I54" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J54" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="M54" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P54">
         <v>0</v>
@@ -2937,19 +3099,22 @@
       <c r="Q54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:17">
+      <c r="R54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
       <c r="A55" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B55" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E55">
         <v>54</v>
       </c>
       <c r="F55" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G55">
         <v>45</v>
@@ -2958,13 +3123,13 @@
         <v>88</v>
       </c>
       <c r="I55" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J55" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="M55" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P55">
         <v>0</v>
@@ -2972,19 +3137,22 @@
       <c r="Q55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:17">
+      <c r="R55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
       <c r="A56" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B56" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E56">
         <v>55</v>
       </c>
       <c r="F56" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G56">
         <v>46</v>
@@ -2993,13 +3161,13 @@
         <v>90</v>
       </c>
       <c r="I56" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J56" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="M56" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P56">
         <v>0</v>
@@ -3007,19 +3175,22 @@
       <c r="Q56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:17">
+      <c r="R56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
       <c r="A57" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B57" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E57">
         <v>56</v>
       </c>
       <c r="F57" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G57">
         <v>46</v>
@@ -3028,13 +3199,13 @@
         <v>90</v>
       </c>
       <c r="I57" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J57" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="M57" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P57">
         <v>0</v>
@@ -3042,19 +3213,22 @@
       <c r="Q57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:17">
+      <c r="R57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
       <c r="A58" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B58" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E58">
         <v>57</v>
       </c>
       <c r="F58" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G58">
         <v>50</v>
@@ -3063,13 +3237,13 @@
         <v>94</v>
       </c>
       <c r="I58" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J58" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="M58" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P58">
         <v>0</v>
@@ -3077,19 +3251,22 @@
       <c r="Q58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:17">
+      <c r="R58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
       <c r="A59" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B59" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E59">
         <v>58</v>
       </c>
       <c r="F59" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G59">
         <v>50</v>
@@ -3098,13 +3275,13 @@
         <v>94</v>
       </c>
       <c r="I59" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J59" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="M59" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P59">
         <v>0</v>
@@ -3112,19 +3289,22 @@
       <c r="Q59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:17">
+      <c r="R59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
       <c r="A60" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B60" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E60">
         <v>59</v>
       </c>
       <c r="F60" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G60">
         <v>50</v>
@@ -3133,13 +3313,13 @@
         <v>94</v>
       </c>
       <c r="I60" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J60" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="M60" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P60">
         <v>0</v>
@@ -3147,19 +3327,22 @@
       <c r="Q60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:17">
+      <c r="R60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
       <c r="A61" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B61" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E61">
         <v>60</v>
       </c>
       <c r="F61" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G61">
         <v>50</v>
@@ -3168,13 +3351,13 @@
         <v>94</v>
       </c>
       <c r="I61" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J61" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="M61" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P61">
         <v>0</v>
@@ -3182,19 +3365,22 @@
       <c r="Q61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:17">
+      <c r="R61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
       <c r="A62" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B62" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E62">
         <v>61</v>
       </c>
       <c r="F62" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G62">
         <v>51</v>
@@ -3203,13 +3389,13 @@
         <v>95</v>
       </c>
       <c r="I62" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J62" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="M62" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P62">
         <v>0</v>
@@ -3217,19 +3403,22 @@
       <c r="Q62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:17">
+      <c r="R62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
       <c r="A63" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B63" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E63">
         <v>62</v>
       </c>
       <c r="F63" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G63">
         <v>52</v>
@@ -3238,13 +3427,13 @@
         <v>96</v>
       </c>
       <c r="I63" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J63" s="2">
         <v>45044.89894675926</v>
       </c>
       <c r="M63" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P63">
         <v>0</v>
@@ -3252,19 +3441,22 @@
       <c r="Q63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:17">
+      <c r="R63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
       <c r="A64" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B64" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E64">
         <v>63</v>
       </c>
       <c r="F64" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G64">
         <v>53</v>
@@ -3273,13 +3465,13 @@
         <v>98</v>
       </c>
       <c r="I64" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J64" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="M64" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P64">
         <v>0</v>
@@ -3287,19 +3479,22 @@
       <c r="Q64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:17">
+      <c r="R64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
       <c r="A65" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B65" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E65">
         <v>64</v>
       </c>
       <c r="F65" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G65">
         <v>54</v>
@@ -3308,13 +3503,13 @@
         <v>99</v>
       </c>
       <c r="I65" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J65" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="M65" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P65">
         <v>0</v>
@@ -3322,19 +3517,22 @@
       <c r="Q65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:17">
+      <c r="R65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
       <c r="A66" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B66" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E66">
         <v>65</v>
       </c>
       <c r="F66" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G66">
         <v>55</v>
@@ -3343,13 +3541,13 @@
         <v>100</v>
       </c>
       <c r="I66" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J66" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="M66" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P66">
         <v>0</v>
@@ -3357,19 +3555,22 @@
       <c r="Q66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:17">
+      <c r="R66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
       <c r="A67" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B67" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E67">
         <v>66</v>
       </c>
       <c r="F67" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G67">
         <v>57</v>
@@ -3378,13 +3579,13 @@
         <v>102</v>
       </c>
       <c r="I67" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J67" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="M67" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P67">
         <v>0</v>
@@ -3392,19 +3593,22 @@
       <c r="Q67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:17">
+      <c r="R67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
       <c r="A68" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B68" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E68">
         <v>67</v>
       </c>
       <c r="F68" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G68">
         <v>60</v>
@@ -3413,13 +3617,13 @@
         <v>105</v>
       </c>
       <c r="I68" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J68" s="2">
         <v>45045.13675925926</v>
       </c>
       <c r="M68" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P68">
         <v>0</v>
@@ -3427,19 +3631,22 @@
       <c r="Q68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:17">
+      <c r="R68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
       <c r="A69" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B69" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E69">
         <v>68</v>
       </c>
       <c r="F69" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G69">
         <v>61</v>
@@ -3448,13 +3655,13 @@
         <v>106</v>
       </c>
       <c r="I69" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J69" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="M69" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P69">
         <v>0</v>
@@ -3462,19 +3669,22 @@
       <c r="Q69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:17">
+      <c r="R69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
       <c r="A70" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B70" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E70">
         <v>69</v>
       </c>
       <c r="F70" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G70">
         <v>64</v>
@@ -3483,13 +3693,13 @@
         <v>111</v>
       </c>
       <c r="I70" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J70" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="M70" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P70">
         <v>0</v>
@@ -3497,19 +3707,22 @@
       <c r="Q70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:17">
+      <c r="R70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
       <c r="A71" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B71" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E71">
         <v>70</v>
       </c>
       <c r="F71" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G71">
         <v>67</v>
@@ -3518,13 +3731,13 @@
         <v>115</v>
       </c>
       <c r="I71" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J71" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="M71" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P71">
         <v>0</v>
@@ -3532,19 +3745,22 @@
       <c r="Q71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:17">
+      <c r="R71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
       <c r="A72" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B72" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E72">
         <v>71</v>
       </c>
       <c r="F72" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G72">
         <v>70</v>
@@ -3553,13 +3769,13 @@
         <v>119</v>
       </c>
       <c r="I72" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J72" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="M72" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P72">
         <v>0</v>
@@ -3567,19 +3783,22 @@
       <c r="Q72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:17">
+      <c r="R72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
       <c r="A73" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B73" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E73">
         <v>72</v>
       </c>
       <c r="F73" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G73">
         <v>70</v>
@@ -3588,13 +3807,13 @@
         <v>119</v>
       </c>
       <c r="I73" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J73" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="M73" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P73">
         <v>0</v>
@@ -3602,19 +3821,22 @@
       <c r="Q73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:17">
+      <c r="R73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
       <c r="A74" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B74" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E74">
         <v>73</v>
       </c>
       <c r="F74" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G74">
         <v>70</v>
@@ -3623,18 +3845,21 @@
         <v>119</v>
       </c>
       <c r="I74" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J74" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="M74" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P74">
         <v>0</v>
       </c>
       <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p39.xlsx
+++ b/files/separadas/repeat_p39.xlsx
@@ -2828,13 +2828,13 @@
         <v>211</v>
       </c>
       <c r="P47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R47">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -2866,13 +2866,13 @@
         <v>211</v>
       </c>
       <c r="P48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R48">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:18">

--- a/files/separadas/repeat_p39.xlsx
+++ b/files/separadas/repeat_p39.xlsx
@@ -2828,13 +2828,13 @@
         <v>211</v>
       </c>
       <c r="P47">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R47">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -2866,13 +2866,13 @@
         <v>211</v>
       </c>
       <c r="P48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R48">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:18">

--- a/files/separadas/repeat_p39.xlsx
+++ b/files/separadas/repeat_p39.xlsx
@@ -1762,13 +1762,13 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="25">

--- a/files/separadas/repeat_p39.xlsx
+++ b/files/separadas/repeat_p39.xlsx
@@ -628,13 +628,13 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="4">
@@ -682,13 +682,13 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="5">
@@ -736,13 +736,13 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="6">

--- a/files/separadas/repeat_p39.xlsx
+++ b/files/separadas/repeat_p39.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Shared drives\VDLab\2023\ComponentesProyectoInversionLABcapital\3.ComponenteCoCreacion\2.Índice de Innovación Pública 2023\Seguimentos\000. Análisis 2023\app\files\separadas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BF3A6B-F961-4075-9631-DEBCA9BD5636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3900" windowWidth="38400" windowHeight="10470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -73,596 +67,596 @@
     <t>Matriz de proyectos con bitácora de seguimiento</t>
   </si>
   <si>
+    <t>Matriz Reegistro colaborativo avance de productos</t>
+  </si>
+  <si>
+    <t>Registros Informes SEGPLAN</t>
+  </si>
+  <si>
+    <t>Comité Institucional de Gestión y Desempñeo</t>
+  </si>
+  <si>
+    <t>Seguimiento a Política Institucional</t>
+  </si>
+  <si>
+    <t>Base de datos seguimiento innovaciones</t>
+  </si>
+  <si>
+    <t>Plan de acción de gestión del Conocimiento</t>
+  </si>
+  <si>
+    <t>Plan de Tecnologías de la Información</t>
+  </si>
+  <si>
+    <t>Reuniones de seguimiento a proyectos innovación</t>
+  </si>
+  <si>
+    <t>01 FOR-GC-080 registro acciones de innovación - SG</t>
+  </si>
+  <si>
+    <t>Carpeta compartida one drive</t>
+  </si>
+  <si>
+    <t>Chat Live (4 mesas de ayuda)</t>
+  </si>
+  <si>
+    <t>Seguimiento modulo de proyectos MIPG 2022 ALMERA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitoreo por Jira </t>
+  </si>
+  <si>
+    <t>Matriz cumplimiento comunicaciones</t>
+  </si>
+  <si>
+    <t>Informes de gestión</t>
+  </si>
+  <si>
+    <t>Planes de acción de proyectos de inversión</t>
+  </si>
+  <si>
+    <t>El informe de seguimiento TPIEG</t>
+  </si>
+  <si>
+    <t>Plan de Cierre de Brechas MIPG</t>
+  </si>
+  <si>
+    <t>Procedimiento formatos y banco de proyectos</t>
+  </si>
+  <si>
+    <t>ESTRATEGIA ORGANIZACIONAL- CARBONO NEUTRO</t>
+  </si>
+  <si>
+    <t>SEGUIMIENTO METAS - PROYECTO 7852- MANZANA CUIDADO</t>
+  </si>
+  <si>
+    <t>Junta Directiva</t>
+  </si>
+  <si>
+    <t>Seguimiento Estrategia de participación</t>
+  </si>
+  <si>
+    <t>Isolucion, Plan estratégico MIPG</t>
+  </si>
+  <si>
+    <t>https://saludata.saludcapital.gov.co/osb/</t>
+  </si>
+  <si>
+    <t>https://saludata.saludcapital.gov.co/</t>
+  </si>
+  <si>
+    <t>Documento con múltiples links</t>
+  </si>
+  <si>
+    <t>Internamente</t>
+  </si>
+  <si>
+    <t>Formato Conocimiento explícito de la Entidad</t>
+  </si>
+  <si>
+    <t>Informe del plan de talento humano</t>
+  </si>
+  <si>
+    <t>Informe de gestión y resultados</t>
+  </si>
+  <si>
+    <t>Indicador de seguimiento de prototipos</t>
+  </si>
+  <si>
+    <t>Formato de lecciones aprendidas</t>
+  </si>
+  <si>
+    <t>Matriz de seguimiento innovación, DTINI</t>
+  </si>
+  <si>
+    <t>Dashboard ZIPA (BIM-TI)</t>
+  </si>
+  <si>
+    <t>Redes sociales</t>
+  </si>
+  <si>
+    <t>Tablero de Control diseñado internamente</t>
+  </si>
+  <si>
+    <t>seguimiento a través de  mesas de trabajo</t>
+  </si>
+  <si>
+    <t>Seguimiento a Planes Operativo Casas de Justicia</t>
+  </si>
+  <si>
+    <t>Tableros de seguimiento y control</t>
+  </si>
+  <si>
+    <t>Informe Ejecutivo 2022 - Equipo Técnico Gesco+I</t>
+  </si>
+  <si>
+    <t>Reporte POA - OAP 2022</t>
+  </si>
+  <si>
+    <t>Repositorio de innovacion y formato de seguimiento</t>
+  </si>
+  <si>
+    <t>Comité de gestión y desempeños</t>
+  </si>
+  <si>
+    <t>correo electronico</t>
+  </si>
+  <si>
+    <t>Correo electronico</t>
+  </si>
+  <si>
+    <t>Plan de Acción de Destino Turístico Inteligente</t>
+  </si>
+  <si>
+    <t>Reuniones de seguimiento</t>
+  </si>
+  <si>
+    <t>Seguimiento BP, informes y charlas</t>
+  </si>
+  <si>
+    <t>Matriz Inventario de Innovación.</t>
+  </si>
+  <si>
+    <t>Matriz</t>
+  </si>
+  <si>
+    <t>Seguimientos planes de acción</t>
+  </si>
+  <si>
+    <t>Estrategias Innovación y Gestió Conocimiento</t>
+  </si>
+  <si>
+    <t>Se desarrolló pero no se encuentra publicado</t>
+  </si>
+  <si>
+    <t>SE desarrolló pero no se encuentra publicado</t>
+  </si>
+  <si>
+    <t>Matriz de Fortalecimiento Institucional FOGEDI</t>
+  </si>
+  <si>
+    <t>Plan Operativo Subdirección de Gestión Humana</t>
+  </si>
+  <si>
+    <t>Informe Sala de monitoreo 2021-2022</t>
+  </si>
+  <si>
+    <t>Informe Formación y capacitación</t>
+  </si>
+  <si>
+    <t>Tablero de Control / Informe /Mesa Técnica</t>
+  </si>
+  <si>
+    <t>Semaforos de seguimiento</t>
+  </si>
+  <si>
+    <t>Matriz excel - Proyectos GESCO+I</t>
+  </si>
+  <si>
+    <t>Informe de seguimiento</t>
+  </si>
+  <si>
+    <t>Seguimiento de cifras en procesos de participación</t>
+  </si>
+  <si>
+    <t>SVE sistema de calidad de la entidad</t>
+  </si>
+  <si>
+    <t>Gobierno Abierto de Bogotá</t>
+  </si>
+  <si>
+    <t>Informes de gestión y resultados</t>
+  </si>
+  <si>
+    <t>Matriz de seguimiento</t>
+  </si>
+  <si>
+    <t>Tableros de control</t>
+  </si>
+  <si>
+    <t>Informe de Gestión 2022</t>
+  </si>
+  <si>
+    <t>Informe de balance social</t>
+  </si>
+  <si>
+    <t>Matriz Pactando</t>
+  </si>
+  <si>
     <t>Archivo-13_20_9.zip</t>
   </si>
   <si>
+    <t>2022_Seguimiento_Politica_GITH_DASC_DEF-8_5_43.xlsx</t>
+  </si>
+  <si>
+    <t>Proy_Inf_Seglan_4T_2021_2022_Metas_PDD-8_7_10.pdf</t>
+  </si>
+  <si>
+    <t>032922_Extracto_Acta_mar_Comite_2022-8_21_25.pdf</t>
+  </si>
+  <si>
+    <t>Plantilla Reporte II Semestre - Plan de Implementación PIIGC 2022-18_13_15.xlsx</t>
+  </si>
+  <si>
+    <t>base_de_datos_seguimiento_innovaciones_implementadas_sdm (2)-19_53_42.xlsx</t>
+  </si>
+  <si>
+    <t>Respuesta pregunta 32-14_44_27.pdf</t>
+  </si>
+  <si>
+    <t>39. Respuesta_ Plan Estratégico de Tecnologías de la Información-14_46_40.pdf</t>
+  </si>
+  <si>
+    <t>39. Pregunta_ Seguimientos proyectos innovación PANDORA-16_13_54.pdf</t>
+  </si>
+  <si>
+    <t>R39_01 20221019_for_gc_080_formato_registro_de_acciones_innovacción-21_59_56.xlsx</t>
+  </si>
+  <si>
+    <t>carpeta compartida One drive-17_30_43.pdf</t>
+  </si>
+  <si>
+    <t>CHAT LIVE pdf-12_11_27.pdf</t>
+  </si>
+  <si>
+    <t>SEGUIMIENTO PLAN DE TRABAJO MIPG SUBRED SUR OCCIDENTE AÑO 2022-13_15_9.xlsx</t>
+  </si>
+  <si>
+    <t>39. Monitoreo y Seguimiento a innovaciones-13_15_56.docx</t>
+  </si>
+  <si>
+    <t>Matriz Cumplimiento Comunicaciones 2022 - Copia-13_16_20.xlsx</t>
+  </si>
+  <si>
+    <t>Informe de gestión Bronx y TransImaginarios-15_21_31.pdf</t>
+  </si>
+  <si>
+    <t>Evidencia pregunta 39-17_41_58.zip</t>
+  </si>
+  <si>
+    <t>Evidencia pregunta 39-1-17_43_50.zip</t>
+  </si>
+  <si>
+    <t>PLAN CIERRE DE BRECHAS - Dimensión 6-11_18_11.xlsx</t>
+  </si>
+  <si>
+    <t>Pregunta 39-12_15_48.zip</t>
+  </si>
+  <si>
+    <t>Estrategia organizacional y gestion emisiones -16_45_41.pdf</t>
+  </si>
+  <si>
+    <t>MANZANAS DEL CUIDADO Seg 7852 diciembre 2022-17_31_9.pdf</t>
+  </si>
+  <si>
+    <t>Soporte pregunta 39-18_2_29.docx</t>
+  </si>
+  <si>
+    <t>39_1_Informe_Estrategia_participación_UPL-22_1_0.pdf</t>
+  </si>
+  <si>
+    <t>Plan Estrategico MIPG 2022 Final-17_2_23.pdf</t>
+  </si>
+  <si>
+    <t>INFORME MONITOREO (1)-17_3_16.pdf</t>
+  </si>
+  <si>
+    <t>Implementación de la Política de Participación Social en Salud en -17_4_12.pdf</t>
+  </si>
+  <si>
+    <t>39. Publicación y seguimiento iniciativas (1)-17_5_11.pdf</t>
+  </si>
+  <si>
+    <t>EVALUAC RUTA MEJORAMIENTO 2023-02-06-17_5_38.pdf</t>
+  </si>
+  <si>
+    <t>2310100-FT-412 Inventario de conocimiento explicito V1-11_7_21.xlsx</t>
+  </si>
+  <si>
+    <t>Informes plan estratégico de talento humano-9_48_10.zip</t>
+  </si>
+  <si>
+    <t>Informes de gestión y resultados-16_29_4.zip</t>
+  </si>
+  <si>
+    <t>P39_indicador prototipos-10_24_23.pdf</t>
+  </si>
+  <si>
+    <t>P38_FT-222 Leccion aprend V1-10_15_22.docx</t>
+  </si>
+  <si>
+    <t>2022_INNOVACION_MATRIZ_DE_SEGUIMIENTO-7_36_45.xlsx</t>
+  </si>
+  <si>
+    <t>TABLERO DE CONTROL OAP-7_38_18.pdf</t>
+  </si>
+  <si>
+    <t>Respuesta pregunta 39-15_59_37.pdf</t>
+  </si>
+  <si>
+    <t>Tablero de control Jardín Botánico de Bogotá-10_40_53.pdf</t>
+  </si>
+  <si>
+    <t>PD-GT-4_V5_copia_controlada (2)-12_48_49.zip</t>
+  </si>
+  <si>
+    <t>Respuesta 39 (Anexo 3)-17_9_33.zip</t>
+  </si>
+  <si>
+    <t>Instrumentos de seguimiento y control-20_56_55.zip</t>
+  </si>
+  <si>
+    <t>2022-12-13_Informe Ejecutivo Gesco+I-17_16_22.pdf</t>
+  </si>
+  <si>
+    <t>Reporte POA-OAP-2022 4to trimestre-17_32_27.pdf</t>
+  </si>
+  <si>
+    <t>Indicador 31-11_40_1.zip</t>
+  </si>
+  <si>
+    <t>39-15_4_24.pdf</t>
+  </si>
+  <si>
+    <t>39.1 Formato de seguimiento mensual del proyecto 7065-16_53_32.zip</t>
+  </si>
+  <si>
+    <t>39.1 FormatoDeSeguimiento proyecto 7561 LABCapital_2021_2022-16_55_5.zip</t>
+  </si>
+  <si>
+    <t>20230317_PADTI_BOGOTA_2022_2023_Innovación-13_48_14.pdf</t>
+  </si>
+  <si>
+    <t>39 Manual - Consulta conceptos técnicos-11_22_8.pdf</t>
+  </si>
+  <si>
+    <t>39 BUENAS PRACTICAS-18_37_56.pdf</t>
+  </si>
+  <si>
+    <t>Inventario iniciativas de innovacion marzo 30-15_36_43.xlsm</t>
+  </si>
+  <si>
+    <t>RETA-CREA-INNOVA-18_33_16.pdf</t>
+  </si>
+  <si>
+    <t>Anexo en blanco Índice de Innovación.-12_49_1.docx</t>
+  </si>
+  <si>
+    <t>Estrategias Innovación y Gestió Conocimiento-16_11_55.xlsx</t>
+  </si>
+  <si>
+    <t>P39_Formato seguimiento TH-15_37_34.pdf</t>
+  </si>
+  <si>
+    <t>P39_iBOP39.022_MatrizIBO-15_37_53.xlsx</t>
+  </si>
+  <si>
+    <t>GE-FT01 FOGEDI-2022_Seguimiento Diciembre-18_6_59.xlsx</t>
+  </si>
+  <si>
+    <t>Plan Operativo SGH 2022_Seguimiento Diciembre-18_7_51.xlsx</t>
+  </si>
+  <si>
+    <t>SALA DE MONITOREO 2021 - 2022-18_8_19.pdf</t>
+  </si>
+  <si>
+    <t>INFORME FORMACIÓN Y CAPACITACIÓN 2021 - 2022-18_8_47.pdf</t>
+  </si>
+  <si>
+    <t>Plan de Acción Anual Dimensión de Gestión del Conocimiento y la Innovación 2022_Vr_31_12_2022-15_55_41.xlsx</t>
+  </si>
+  <si>
+    <t>Monitoreo ISAAC-16_18_59.pdf</t>
+  </si>
+  <si>
+    <t>SOPORTES CARPETA COMPARTIDA ONEDRIVE-12_25_30.docx</t>
+  </si>
+  <si>
+    <t>Pregunta 3. Evidencias y justificación (1)-16_26_14.pdf</t>
+  </si>
+  <si>
+    <t>Lab. cívicos - registro Buenas prácticas (1)-18_17_9.xlsx</t>
+  </si>
+  <si>
+    <t>Evidencias Fondo de Prestaciones Económicas Cesantías y Pensiones-16_33_29.pdf</t>
+  </si>
+  <si>
+    <t>C:\fakepath\HOJA DE SOPORTE INNOVACIÓN.docx</t>
+  </si>
+  <si>
+    <t>informe_de_gestion_y_resultados_sdg-22_32_49.pdf</t>
+  </si>
+  <si>
+    <t>Seguimiento Buenas Practicas AL Tunjuelito-11_18_1.pdf</t>
+  </si>
+  <si>
+    <t>Cronograma mensual de actividades EHC 2022-19_6_17.xlsx</t>
+  </si>
+  <si>
+    <t>C:\fakepath\informe_de_gestion_institucional_2022-15_51_7.pdf.txt</t>
+  </si>
+  <si>
+    <t>C:\fakepath\cbn-0021_informe_de_balance_social_vigencia_2022-15_51_31.pdf.txt</t>
+  </si>
+  <si>
+    <t>C:\fakepath\MATRIZ PACTANDO -PDF-15_52_18.pdf.txt</t>
+  </si>
+  <si>
     <t>Índice de Innovación Pública 2023</t>
   </si>
   <si>
     <t>da3ccecf-b7ad-46f2-a759-edd4533cd47c</t>
   </si>
   <si>
+    <t>7e1205f0-4cd8-4e39-80fd-7651266ddc5f</t>
+  </si>
+  <si>
+    <t>7685ff5a-9ae7-4ffc-b81d-8ab9fa125415</t>
+  </si>
+  <si>
+    <t>c4f36231-7247-483a-b21e-44e5d118db29</t>
+  </si>
+  <si>
+    <t>9c4dae24-05a5-454b-bd06-b44f7b4b5aab</t>
+  </si>
+  <si>
+    <t>deca3f0e-aeac-4446-8e7c-793ba8cb2bb2</t>
+  </si>
+  <si>
+    <t>6b9496af-f22b-4ffa-8fd0-3715b7a4c44f</t>
+  </si>
+  <si>
+    <t>a6fa44d1-a682-4599-8e12-a0f1a12b6b69</t>
+  </si>
+  <si>
+    <t>9a322050-1f3a-4431-87f4-5d24fb1adcf5</t>
+  </si>
+  <si>
+    <t>7a5e1933-2716-444c-81f2-b9f0d9497cc6</t>
+  </si>
+  <si>
+    <t>6da76978-4091-4857-991a-24dbc6ac5894</t>
+  </si>
+  <si>
+    <t>ce0f66f7-a7ad-4e4f-a631-f083237dcc0a</t>
+  </si>
+  <si>
+    <t>6c08e1b7-e43e-42ef-ad4a-9bc3c77ed37f</t>
+  </si>
+  <si>
+    <t>47a52a9a-d3fa-4c48-b3fe-5d6916c283e4</t>
+  </si>
+  <si>
+    <t>4345be1e-ba97-44b0-8bcb-dc935f6b691f</t>
+  </si>
+  <si>
+    <t>289452a5-d96a-41a2-89f0-a16058a70511</t>
+  </si>
+  <si>
+    <t>b3a1580a-2f11-468c-9336-e1ce3cc1e57b</t>
+  </si>
+  <si>
+    <t>1d8d452b-c609-4ae7-9b8c-567a1f28032f</t>
+  </si>
+  <si>
+    <t>93c5d9a1-9971-4450-ab5a-66a350eb158a</t>
+  </si>
+  <si>
+    <t>8e512352-7788-420d-9f94-e0ba1018820f</t>
+  </si>
+  <si>
+    <t>eb0a045e-2518-4482-a623-8351a9340e2a</t>
+  </si>
+  <si>
+    <t>853d09e9-df1f-4a9b-a21c-5d2499e3ffa4</t>
+  </si>
+  <si>
+    <t>1da7de14-57d3-4f35-8b1e-f66c3d95aeeb</t>
+  </si>
+  <si>
+    <t>69a66e34-418d-4f80-85cd-f9510d2d524e</t>
+  </si>
+  <si>
+    <t>99890a0b-70de-4846-8562-08860ab50475</t>
+  </si>
+  <si>
+    <t>1b01632f-f169-46c5-be3a-d1c1eee6f58c</t>
+  </si>
+  <si>
+    <t>1b09ae65-d423-41ce-bb04-76539e953cd1</t>
+  </si>
+  <si>
+    <t>f44cbd7c-171d-4b35-9133-8901fb67c3a0</t>
+  </si>
+  <si>
+    <t>2a1228b4-8ee2-424d-ac64-2c28d249f7f7</t>
+  </si>
+  <si>
+    <t>f40536a4-9859-440c-8dbe-6de07ea0c57f</t>
+  </si>
+  <si>
+    <t>e6e31363-d0e1-4ece-bc04-b52a0896a5c3</t>
+  </si>
+  <si>
+    <t>dae08630-74c8-44c3-906c-d4b7fdbd4bfa</t>
+  </si>
+  <si>
+    <t>5026a6c5-bc28-4abe-ba16-84848fd70f3f</t>
+  </si>
+  <si>
+    <t>55d0f698-9b69-4a7f-8a64-33a3e2236f56</t>
+  </si>
+  <si>
+    <t>e4cd18f0-b93e-43e3-9e70-b67b5b86101d</t>
+  </si>
+  <si>
+    <t>e32446a6-18d0-481c-b2b4-3e32a9356113</t>
+  </si>
+  <si>
+    <t>0567f60c-47f5-43ce-a028-b80eaf88d37a</t>
+  </si>
+  <si>
+    <t>594b1c29-91da-407a-93e6-57c8ffa8e22a</t>
+  </si>
+  <si>
+    <t>b00a799a-4c7e-449c-9eb8-8f3d4123e788</t>
+  </si>
+  <si>
+    <t>d4736ade-3144-4127-bd1f-a428c77e125e</t>
+  </si>
+  <si>
+    <t>965af449-187b-477e-b052-6c8466485c06</t>
+  </si>
+  <si>
+    <t>16790b2a-7734-4ee5-8914-a100e6c136cb</t>
+  </si>
+  <si>
+    <t>1b8fefa0-afe4-4c6e-9a13-e15c39b76a4e</t>
+  </si>
+  <si>
+    <t>1dcd0622-9833-4ca8-8b09-ea7617ead3c3</t>
+  </si>
+  <si>
+    <t>df3c6d45-a610-452f-9f01-3efae7005f0f</t>
+  </si>
+  <si>
+    <t>8f2013cb-a19d-4b94-82e1-dde826049c56</t>
+  </si>
+  <si>
     <t>submitted_via_web</t>
   </si>
   <si>
-    <t>Matriz Reegistro colaborativo avance de productos</t>
-  </si>
-  <si>
-    <t>2022_Seguimiento_Politica_GITH_DASC_DEF-8_5_43.xlsx</t>
-  </si>
-  <si>
-    <t>7e1205f0-4cd8-4e39-80fd-7651266ddc5f</t>
-  </si>
-  <si>
-    <t>Registros Informes SEGPLAN</t>
-  </si>
-  <si>
-    <t>Proy_Inf_Seglan_4T_2021_2022_Metas_PDD-8_7_10.pdf</t>
-  </si>
-  <si>
-    <t>Comité Institucional de Gestión y Desempñeo</t>
-  </si>
-  <si>
-    <t>032922_Extracto_Acta_mar_Comite_2022-8_21_25.pdf</t>
-  </si>
-  <si>
-    <t>Seguimiento a Política Institucional</t>
-  </si>
-  <si>
-    <t>Plantilla Reporte II Semestre - Plan de Implementación PIIGC 2022-18_13_15.xlsx</t>
-  </si>
-  <si>
-    <t>7685ff5a-9ae7-4ffc-b81d-8ab9fa125415</t>
-  </si>
-  <si>
-    <t>Base de datos seguimiento innovaciones</t>
-  </si>
-  <si>
-    <t>base_de_datos_seguimiento_innovaciones_implementadas_sdm (2)-19_53_42.xlsx</t>
-  </si>
-  <si>
-    <t>c4f36231-7247-483a-b21e-44e5d118db29</t>
-  </si>
-  <si>
-    <t>Plan de acción de gestión del Conocimiento</t>
-  </si>
-  <si>
-    <t>Respuesta pregunta 32-14_44_27.pdf</t>
-  </si>
-  <si>
-    <t>9c4dae24-05a5-454b-bd06-b44f7b4b5aab</t>
-  </si>
-  <si>
-    <t>Plan de Tecnologías de la Información</t>
-  </si>
-  <si>
-    <t>39. Respuesta_ Plan Estratégico de Tecnologías de la Información-14_46_40.pdf</t>
-  </si>
-  <si>
-    <t>Reuniones de seguimiento a proyectos innovación</t>
-  </si>
-  <si>
-    <t>39. Pregunta_ Seguimientos proyectos innovación PANDORA-16_13_54.pdf</t>
-  </si>
-  <si>
-    <t>01 FOR-GC-080 registro acciones de innovación - SG</t>
-  </si>
-  <si>
-    <t>R39_01 20221019_for_gc_080_formato_registro_de_acciones_innovacción-21_59_56.xlsx</t>
-  </si>
-  <si>
-    <t>deca3f0e-aeac-4446-8e7c-793ba8cb2bb2</t>
-  </si>
-  <si>
-    <t>Carpeta compartida one drive</t>
-  </si>
-  <si>
-    <t>carpeta compartida One drive-17_30_43.pdf</t>
-  </si>
-  <si>
-    <t>6b9496af-f22b-4ffa-8fd0-3715b7a4c44f</t>
-  </si>
-  <si>
-    <t>Chat Live (4 mesas de ayuda)</t>
-  </si>
-  <si>
-    <t>CHAT LIVE pdf-12_11_27.pdf</t>
-  </si>
-  <si>
-    <t>Seguimiento modulo de proyectos MIPG 2022 ALMERA</t>
-  </si>
-  <si>
-    <t>SEGUIMIENTO PLAN DE TRABAJO MIPG SUBRED SUR OCCIDENTE AÑO 2022-13_15_9.xlsx</t>
-  </si>
-  <si>
-    <t>a6fa44d1-a682-4599-8e12-a0f1a12b6b69</t>
-  </si>
-  <si>
     <t>zip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monitoreo por Jira </t>
-  </si>
-  <si>
-    <t>39. Monitoreo y Seguimiento a innovaciones-13_15_56.docx</t>
-  </si>
-  <si>
-    <t>Matriz cumplimiento comunicaciones</t>
-  </si>
-  <si>
-    <t>Matriz Cumplimiento Comunicaciones 2022 - Copia-13_16_20.xlsx</t>
-  </si>
-  <si>
-    <t>Informes de gestión</t>
-  </si>
-  <si>
-    <t>Informe de gestión Bronx y TransImaginarios-15_21_31.pdf</t>
-  </si>
-  <si>
-    <t>9a322050-1f3a-4431-87f4-5d24fb1adcf5</t>
-  </si>
-  <si>
-    <t>Planes de acción de proyectos de inversión</t>
-  </si>
-  <si>
-    <t>Evidencia pregunta 39-17_41_58.zip</t>
-  </si>
-  <si>
-    <t>7a5e1933-2716-444c-81f2-b9f0d9497cc6</t>
-  </si>
-  <si>
-    <t>El informe de seguimiento TPIEG</t>
-  </si>
-  <si>
-    <t>Evidencia pregunta 39-1-17_43_50.zip</t>
-  </si>
-  <si>
-    <t>Plan de Cierre de Brechas MIPG</t>
-  </si>
-  <si>
-    <t>PLAN CIERRE DE BRECHAS - Dimensión 6-11_18_11.xlsx</t>
-  </si>
-  <si>
-    <t>6da76978-4091-4857-991a-24dbc6ac5894</t>
-  </si>
-  <si>
-    <t>Procedimiento formatos y banco de proyectos</t>
-  </si>
-  <si>
-    <t>Pregunta 39-12_15_48.zip</t>
-  </si>
-  <si>
-    <t>ce0f66f7-a7ad-4e4f-a631-f083237dcc0a</t>
-  </si>
-  <si>
-    <t>ESTRATEGIA ORGANIZACIONAL- CARBONO NEUTRO</t>
-  </si>
-  <si>
-    <t>Estrategia organizacional y gestion emisiones -16_45_41.pdf</t>
-  </si>
-  <si>
-    <t>6c08e1b7-e43e-42ef-ad4a-9bc3c77ed37f</t>
-  </si>
-  <si>
-    <t>SEGUIMIENTO METAS - PROYECTO 7852- MANZANA CUIDADO</t>
-  </si>
-  <si>
-    <t>MANZANAS DEL CUIDADO Seg 7852 diciembre 2022-17_31_9.pdf</t>
-  </si>
-  <si>
-    <t>Junta Directiva</t>
-  </si>
-  <si>
-    <t>Soporte pregunta 39-18_2_29.docx</t>
-  </si>
-  <si>
-    <t>47a52a9a-d3fa-4c48-b3fe-5d6916c283e4</t>
-  </si>
-  <si>
-    <t>Seguimiento Estrategia de participación</t>
-  </si>
-  <si>
-    <t>39_1_Informe_Estrategia_participación_UPL-22_1_0.pdf</t>
-  </si>
-  <si>
-    <t>4345be1e-ba97-44b0-8bcb-dc935f6b691f</t>
-  </si>
-  <si>
-    <t>Isolucion, Plan estratégico MIPG</t>
-  </si>
-  <si>
-    <t>Plan Estrategico MIPG 2022 Final-17_2_23.pdf</t>
-  </si>
-  <si>
-    <t>289452a5-d96a-41a2-89f0-a16058a70511</t>
-  </si>
-  <si>
-    <t>https://saludata.saludcapital.gov.co/osb/</t>
-  </si>
-  <si>
-    <t>INFORME MONITOREO (1)-17_3_16.pdf</t>
-  </si>
-  <si>
-    <t>https://saludata.saludcapital.gov.co/</t>
-  </si>
-  <si>
-    <t>Implementación de la Política de Participación Social en Salud en -17_4_12.pdf</t>
-  </si>
-  <si>
-    <t>Documento con múltiples links</t>
-  </si>
-  <si>
-    <t>39. Publicación y seguimiento iniciativas (1)-17_5_11.pdf</t>
-  </si>
-  <si>
-    <t>Internamente</t>
-  </si>
-  <si>
-    <t>EVALUAC RUTA MEJORAMIENTO 2023-02-06-17_5_38.pdf</t>
-  </si>
-  <si>
-    <t>Formato Conocimiento explícito de la Entidad</t>
-  </si>
-  <si>
-    <t>2310100-FT-412 Inventario de conocimiento explicito V1-11_7_21.xlsx</t>
-  </si>
-  <si>
-    <t>b3a1580a-2f11-468c-9336-e1ce3cc1e57b</t>
-  </si>
-  <si>
-    <t>Informe del plan de talento humano</t>
-  </si>
-  <si>
-    <t>Informes plan estratégico de talento humano-9_48_10.zip</t>
-  </si>
-  <si>
-    <t>Informe de gestión y resultados</t>
-  </si>
-  <si>
-    <t>Informes de gestión y resultados-16_29_4.zip</t>
-  </si>
-  <si>
-    <t>Indicador de seguimiento de prototipos</t>
-  </si>
-  <si>
-    <t>P39_indicador prototipos-10_24_23.pdf</t>
-  </si>
-  <si>
-    <t>1d8d452b-c609-4ae7-9b8c-567a1f28032f</t>
-  </si>
-  <si>
-    <t>Formato de lecciones aprendidas</t>
-  </si>
-  <si>
-    <t>P38_FT-222 Leccion aprend V1-10_15_22.docx</t>
-  </si>
-  <si>
-    <t>Matriz de seguimiento innovación, DTINI</t>
-  </si>
-  <si>
-    <t>2022_INNOVACION_MATRIZ_DE_SEGUIMIENTO-7_36_45.xlsx</t>
-  </si>
-  <si>
-    <t>93c5d9a1-9971-4450-ab5a-66a350eb158a</t>
-  </si>
-  <si>
-    <t>Dashboard ZIPA (BIM-TI)</t>
-  </si>
-  <si>
-    <t>TABLERO DE CONTROL OAP-7_38_18.pdf</t>
-  </si>
-  <si>
-    <t>Redes sociales</t>
-  </si>
-  <si>
-    <t>Respuesta pregunta 39-15_59_37.pdf</t>
-  </si>
-  <si>
-    <t>8e512352-7788-420d-9f94-e0ba1018820f</t>
-  </si>
-  <si>
-    <t>Tablero de Control diseñado internamente</t>
-  </si>
-  <si>
-    <t>Tablero de control Jardín Botánico de Bogotá-10_40_53.pdf</t>
-  </si>
-  <si>
-    <t>eb0a045e-2518-4482-a623-8351a9340e2a</t>
-  </si>
-  <si>
-    <t>seguimiento a través de  mesas de trabajo</t>
-  </si>
-  <si>
-    <t>PD-GT-4_V5_copia_controlada (2)-12_48_49.zip</t>
-  </si>
-  <si>
-    <t>853d09e9-df1f-4a9b-a21c-5d2499e3ffa4</t>
-  </si>
-  <si>
-    <t>Seguimiento a Planes Operativo Casas de Justicia</t>
-  </si>
-  <si>
-    <t>Respuesta 39 (Anexo 3)-17_9_33.zip</t>
-  </si>
-  <si>
-    <t>Tableros de seguimiento y control</t>
-  </si>
-  <si>
-    <t>Instrumentos de seguimiento y control-20_56_55.zip</t>
-  </si>
-  <si>
-    <t>1da7de14-57d3-4f35-8b1e-f66c3d95aeeb</t>
-  </si>
-  <si>
-    <t>Informe Ejecutivo 2022 - Equipo Técnico Gesco+I</t>
-  </si>
-  <si>
-    <t>2022-12-13_Informe Ejecutivo Gesco+I-17_16_22.pdf</t>
-  </si>
-  <si>
-    <t>Reporte POA - OAP 2022</t>
-  </si>
-  <si>
-    <t>Reporte POA-OAP-2022 4to trimestre-17_32_27.pdf</t>
-  </si>
-  <si>
-    <t>Repositorio de innovacion y formato de seguimiento</t>
-  </si>
-  <si>
-    <t>Indicador 31-11_40_1.zip</t>
-  </si>
-  <si>
-    <t>69a66e34-418d-4f80-85cd-f9510d2d524e</t>
-  </si>
-  <si>
-    <t>Comité de gestión y desempeños</t>
-  </si>
-  <si>
-    <t>39-15_4_24.pdf</t>
-  </si>
-  <si>
-    <t>99890a0b-70de-4846-8562-08860ab50475</t>
-  </si>
-  <si>
-    <t>correo electronico</t>
-  </si>
-  <si>
-    <t>39.1 Formato de seguimiento mensual del proyecto 7065-16_53_32.zip</t>
-  </si>
-  <si>
-    <t>1b01632f-f169-46c5-be3a-d1c1eee6f58c</t>
-  </si>
-  <si>
-    <t>Correo electronico</t>
-  </si>
-  <si>
-    <t>39.1 FormatoDeSeguimiento proyecto 7561 LABCapital_2021_2022-16_55_5.zip</t>
-  </si>
-  <si>
-    <t>Plan de Acción de Destino Turístico Inteligente</t>
-  </si>
-  <si>
-    <t>20230317_PADTI_BOGOTA_2022_2023_Innovación-13_48_14.pdf</t>
-  </si>
-  <si>
-    <t>1b09ae65-d423-41ce-bb04-76539e953cd1</t>
-  </si>
-  <si>
-    <t>Reuniones de seguimiento</t>
-  </si>
-  <si>
-    <t>39 Manual - Consulta conceptos técnicos-11_22_8.pdf</t>
-  </si>
-  <si>
-    <t>f44cbd7c-171d-4b35-9133-8901fb67c3a0</t>
-  </si>
-  <si>
-    <t>Seguimiento BP, informes y charlas</t>
-  </si>
-  <si>
-    <t>39 BUENAS PRACTICAS-18_37_56.pdf</t>
-  </si>
-  <si>
-    <t>2a1228b4-8ee2-424d-ac64-2c28d249f7f7</t>
-  </si>
-  <si>
-    <t>Matriz Inventario de Innovación.</t>
-  </si>
-  <si>
-    <t>Inventario iniciativas de innovacion marzo 30-15_36_43.xlsm</t>
-  </si>
-  <si>
-    <t>f40536a4-9859-440c-8dbe-6de07ea0c57f</t>
-  </si>
-  <si>
-    <t>Matriz</t>
-  </si>
-  <si>
-    <t>RETA-CREA-INNOVA-18_33_16.pdf</t>
-  </si>
-  <si>
-    <t>e6e31363-d0e1-4ece-bc04-b52a0896a5c3</t>
-  </si>
-  <si>
-    <t>Seguimientos planes de acción</t>
-  </si>
-  <si>
-    <t>Anexo en blanco Índice de Innovación.-12_49_1.docx</t>
-  </si>
-  <si>
-    <t>dae08630-74c8-44c3-906c-d4b7fdbd4bfa</t>
-  </si>
-  <si>
-    <t>Estrategias Innovación y Gestió Conocimiento</t>
-  </si>
-  <si>
-    <t>Estrategias Innovación y Gestió Conocimiento-16_11_55.xlsx</t>
-  </si>
-  <si>
-    <t>5026a6c5-bc28-4abe-ba16-84848fd70f3f</t>
-  </si>
-  <si>
-    <t>Se desarrolló pero no se encuentra publicado</t>
-  </si>
-  <si>
-    <t>P39_Formato seguimiento TH-15_37_34.pdf</t>
-  </si>
-  <si>
-    <t>55d0f698-9b69-4a7f-8a64-33a3e2236f56</t>
-  </si>
-  <si>
-    <t>SE desarrolló pero no se encuentra publicado</t>
-  </si>
-  <si>
-    <t>P39_iBOP39.022_MatrizIBO-15_37_53.xlsx</t>
-  </si>
-  <si>
-    <t>Matriz de Fortalecimiento Institucional FOGEDI</t>
-  </si>
-  <si>
-    <t>GE-FT01 FOGEDI-2022_Seguimiento Diciembre-18_6_59.xlsx</t>
-  </si>
-  <si>
-    <t>e4cd18f0-b93e-43e3-9e70-b67b5b86101d</t>
-  </si>
-  <si>
-    <t>Plan Operativo Subdirección de Gestión Humana</t>
-  </si>
-  <si>
-    <t>Plan Operativo SGH 2022_Seguimiento Diciembre-18_7_51.xlsx</t>
-  </si>
-  <si>
-    <t>Informe Sala de monitoreo 2021-2022</t>
-  </si>
-  <si>
-    <t>SALA DE MONITOREO 2021 - 2022-18_8_19.pdf</t>
-  </si>
-  <si>
-    <t>Informe Formación y capacitación</t>
-  </si>
-  <si>
-    <t>INFORME FORMACIÓN Y CAPACITACIÓN 2021 - 2022-18_8_47.pdf</t>
-  </si>
-  <si>
-    <t>Tablero de Control / Informe /Mesa Técnica</t>
-  </si>
-  <si>
-    <t>Plan de Acción Anual Dimensión de Gestión del Conocimiento y la Innovación 2022_Vr_31_12_2022-15_55_41.xlsx</t>
-  </si>
-  <si>
-    <t>e32446a6-18d0-481c-b2b4-3e32a9356113</t>
-  </si>
-  <si>
-    <t>Semaforos de seguimiento</t>
-  </si>
-  <si>
-    <t>Monitoreo ISAAC-16_18_59.pdf</t>
-  </si>
-  <si>
-    <t>0567f60c-47f5-43ce-a028-b80eaf88d37a</t>
-  </si>
-  <si>
-    <t>Matriz excel - Proyectos GESCO+I</t>
-  </si>
-  <si>
-    <t>SOPORTES CARPETA COMPARTIDA ONEDRIVE-12_25_30.docx</t>
-  </si>
-  <si>
-    <t>594b1c29-91da-407a-93e6-57c8ffa8e22a</t>
-  </si>
-  <si>
-    <t>Informe de seguimiento</t>
-  </si>
-  <si>
-    <t>Pregunta 3. Evidencias y justificación (1)-16_26_14.pdf</t>
-  </si>
-  <si>
-    <t>b00a799a-4c7e-449c-9eb8-8f3d4123e788</t>
-  </si>
-  <si>
-    <t>Seguimiento de cifras en procesos de participación</t>
-  </si>
-  <si>
-    <t>Lab. cívicos - registro Buenas prácticas (1)-18_17_9.xlsx</t>
-  </si>
-  <si>
-    <t>d4736ade-3144-4127-bd1f-a428c77e125e</t>
-  </si>
-  <si>
-    <t>SVE sistema de calidad de la entidad</t>
-  </si>
-  <si>
-    <t>Evidencias Fondo de Prestaciones Económicas Cesantías y Pensiones-16_33_29.pdf</t>
-  </si>
-  <si>
-    <t>965af449-187b-477e-b052-6c8466485c06</t>
-  </si>
-  <si>
-    <t>Gobierno Abierto de Bogotá</t>
-  </si>
-  <si>
-    <t>C:\fakepath\HOJA DE SOPORTE INNOVACIÓN.docx</t>
-  </si>
-  <si>
-    <t>16790b2a-7734-4ee5-8914-a100e6c136cb</t>
-  </si>
-  <si>
-    <t>Informes de gestión y resultados</t>
-  </si>
-  <si>
-    <t>informe_de_gestion_y_resultados_sdg-22_32_49.pdf</t>
-  </si>
-  <si>
-    <t>1b8fefa0-afe4-4c6e-9a13-e15c39b76a4e</t>
-  </si>
-  <si>
-    <t>Matriz de seguimiento</t>
-  </si>
-  <si>
-    <t>Seguimiento Buenas Practicas AL Tunjuelito-11_18_1.pdf</t>
-  </si>
-  <si>
-    <t>1dcd0622-9833-4ca8-8b09-ea7617ead3c3</t>
-  </si>
-  <si>
-    <t>Tableros de control</t>
-  </si>
-  <si>
-    <t>Cronograma mensual de actividades EHC 2022-19_6_17.xlsx</t>
-  </si>
-  <si>
-    <t>df3c6d45-a610-452f-9f01-3efae7005f0f</t>
-  </si>
-  <si>
-    <t>Informe de Gestión 2022</t>
-  </si>
-  <si>
-    <t>C:\fakepath\informe_de_gestion_institucional_2022-15_51_7.pdf.txt</t>
-  </si>
-  <si>
-    <t>8f2013cb-a19d-4b94-82e1-dde826049c56</t>
-  </si>
-  <si>
-    <t>Informe de balance social</t>
-  </si>
-  <si>
-    <t>C:\fakepath\cbn-0021_informe_de_balance_social_vigencia_2022-15_51_31.pdf.txt</t>
-  </si>
-  <si>
-    <t>Matriz Pactando</t>
-  </si>
-  <si>
-    <t>C:\fakepath\MATRIZ PACTANDO -PDF-15_52_18.pdf.txt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -673,7 +667,17 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -708,29 +712,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1018,16 +1020,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1077,18 +1077,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -1097,30 +1097,30 @@
         <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>163</v>
       </c>
       <c r="J2" s="2">
-        <v>45021.788078703707</v>
+        <v>45021.78807870371</v>
       </c>
       <c r="M2" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -1129,30 +1129,30 @@
         <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="J3" s="2">
-        <v>45026.556944444441</v>
+        <v>45026.55694444444</v>
       </c>
       <c r="M3" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="P3">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -1161,30 +1161,30 @@
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="J4" s="2">
-        <v>45026.556944444441</v>
+        <v>45026.55694444444</v>
       </c>
       <c r="M4" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="P4">
         <v>1.2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -1193,30 +1193,30 @@
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="J5" s="2">
-        <v>45026.556944444441</v>
+        <v>45026.55694444444</v>
       </c>
       <c r="M5" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="P5">
         <v>1.8</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G6">
         <v>7</v>
@@ -1225,30 +1225,30 @@
         <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>165</v>
       </c>
       <c r="J6" s="2">
-        <v>45027.659305555557</v>
+        <v>45027.65930555556</v>
       </c>
       <c r="M6" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G7">
         <v>9</v>
@@ -1257,30 +1257,30 @@
         <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="J7" s="2">
-        <v>45028.820057870369</v>
+        <v>45028.82005787037</v>
       </c>
       <c r="M7" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G8">
         <v>10</v>
@@ -1289,30 +1289,30 @@
         <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>36</v>
+        <v>167</v>
       </c>
       <c r="J8" s="2">
-        <v>45028.887245370373</v>
+        <v>45028.88724537037</v>
       </c>
       <c r="M8" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -1321,30 +1321,30 @@
         <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>36</v>
+        <v>167</v>
       </c>
       <c r="J9" s="2">
-        <v>45028.887245370373</v>
+        <v>45028.88724537037</v>
       </c>
       <c r="M9" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -1353,30 +1353,30 @@
         <v>16</v>
       </c>
       <c r="I10" t="s">
-        <v>36</v>
+        <v>167</v>
       </c>
       <c r="J10" s="2">
-        <v>45028.887245370373</v>
+        <v>45028.88724537037</v>
       </c>
       <c r="M10" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G11">
         <v>11</v>
@@ -1385,30 +1385,30 @@
         <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>43</v>
+        <v>168</v>
       </c>
       <c r="J11" s="2">
-        <v>45028.903171296297</v>
+        <v>45028.9031712963</v>
       </c>
       <c r="M11" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="E12">
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G12">
         <v>12</v>
@@ -1417,30 +1417,30 @@
         <v>18</v>
       </c>
       <c r="I12" t="s">
-        <v>46</v>
+        <v>169</v>
       </c>
       <c r="J12" s="2">
-        <v>45029.811898148153</v>
+        <v>45029.81189814815</v>
       </c>
       <c r="M12" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G13">
         <v>12</v>
@@ -1449,30 +1449,30 @@
         <v>18</v>
       </c>
       <c r="I13" t="s">
-        <v>46</v>
+        <v>169</v>
       </c>
       <c r="J13" s="2">
-        <v>45029.811898148153</v>
+        <v>45029.81189814815</v>
       </c>
       <c r="M13" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="E14">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G14">
         <v>13</v>
@@ -1481,30 +1481,30 @@
         <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>51</v>
+        <v>170</v>
       </c>
       <c r="J14" s="2">
-        <v>45029.854571759257</v>
+        <v>45029.85457175926</v>
       </c>
       <c r="M14" t="s">
-        <v>52</v>
+        <v>210</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G15">
         <v>13</v>
@@ -1513,30 +1513,30 @@
         <v>20</v>
       </c>
       <c r="I15" t="s">
-        <v>51</v>
+        <v>170</v>
       </c>
       <c r="J15" s="2">
-        <v>45029.854571759257</v>
+        <v>45029.85457175926</v>
       </c>
       <c r="M15" t="s">
-        <v>52</v>
+        <v>210</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="E16">
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G16">
         <v>13</v>
@@ -1545,30 +1545,30 @@
         <v>20</v>
       </c>
       <c r="I16" t="s">
-        <v>51</v>
+        <v>170</v>
       </c>
       <c r="J16" s="2">
-        <v>45029.854571759257</v>
+        <v>45029.85457175926</v>
       </c>
       <c r="M16" t="s">
-        <v>52</v>
+        <v>210</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="E17">
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G17">
         <v>14</v>
@@ -1577,30 +1577,30 @@
         <v>21</v>
       </c>
       <c r="I17" t="s">
-        <v>59</v>
+        <v>171</v>
       </c>
       <c r="J17" s="2">
-        <v>45029.863969907397</v>
+        <v>45029.8639699074</v>
       </c>
       <c r="M17" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="E18">
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G18">
         <v>15</v>
@@ -1609,30 +1609,30 @@
         <v>22</v>
       </c>
       <c r="I18" t="s">
-        <v>62</v>
+        <v>172</v>
       </c>
       <c r="J18" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="M18" t="s">
-        <v>52</v>
+        <v>210</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="E19">
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G19">
         <v>15</v>
@@ -1641,30 +1641,30 @@
         <v>22</v>
       </c>
       <c r="I19" t="s">
-        <v>62</v>
+        <v>172</v>
       </c>
       <c r="J19" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="M19" t="s">
-        <v>52</v>
+        <v>210</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="E20">
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G20">
         <v>16</v>
@@ -1673,30 +1673,30 @@
         <v>25</v>
       </c>
       <c r="I20" t="s">
-        <v>67</v>
+        <v>173</v>
       </c>
       <c r="J20" s="2">
-        <v>45030.711909722217</v>
+        <v>45030.71190972222</v>
       </c>
       <c r="M20" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="E21">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G21">
         <v>17</v>
@@ -1705,30 +1705,30 @@
         <v>26</v>
       </c>
       <c r="I21" t="s">
-        <v>70</v>
+        <v>174</v>
       </c>
       <c r="J21" s="2">
-        <v>45030.720057870371</v>
+        <v>45030.72005787037</v>
       </c>
       <c r="M21" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="E22">
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G22">
         <v>20</v>
@@ -1737,30 +1737,30 @@
         <v>33</v>
       </c>
       <c r="I22" t="s">
-        <v>73</v>
+        <v>175</v>
       </c>
       <c r="J22" s="2">
-        <v>45030.958981481483</v>
+        <v>45030.95898148148</v>
       </c>
       <c r="M22" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="E23">
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G23">
         <v>20</v>
@@ -1769,30 +1769,30 @@
         <v>33</v>
       </c>
       <c r="I23" t="s">
-        <v>73</v>
+        <v>175</v>
       </c>
       <c r="J23" s="2">
-        <v>45030.958981481483</v>
+        <v>45030.95898148148</v>
       </c>
       <c r="M23" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="E24">
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G24">
         <v>21</v>
@@ -1801,30 +1801,30 @@
         <v>34</v>
       </c>
       <c r="I24" t="s">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="J24" s="2">
-        <v>45030.976238425923</v>
+        <v>45030.97623842592</v>
       </c>
       <c r="M24" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="P24">
         <v>1.8</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="A25" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="E25">
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G25">
         <v>22</v>
@@ -1833,30 +1833,30 @@
         <v>37</v>
       </c>
       <c r="I25" t="s">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="J25" s="2">
-        <v>45031.151331018518</v>
+        <v>45031.15133101852</v>
       </c>
       <c r="M25" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16">
       <c r="A26" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="E26">
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G26">
         <v>23</v>
@@ -1865,30 +1865,30 @@
         <v>38</v>
       </c>
       <c r="I26" t="s">
-        <v>84</v>
+        <v>178</v>
       </c>
       <c r="J26" s="2">
-        <v>45031.191064814811</v>
+        <v>45031.19106481481</v>
       </c>
       <c r="M26" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="P26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>85</v>
+    <row r="27" spans="1:16">
+      <c r="A27" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="E27">
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G27">
         <v>23</v>
@@ -1897,30 +1897,30 @@
         <v>38</v>
       </c>
       <c r="I27" t="s">
-        <v>84</v>
+        <v>178</v>
       </c>
       <c r="J27" s="2">
-        <v>45031.191064814811</v>
+        <v>45031.19106481481</v>
       </c>
       <c r="M27" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="P27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>87</v>
+    <row r="28" spans="1:16">
+      <c r="A28" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="E28">
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G28">
         <v>23</v>
@@ -1929,30 +1929,30 @@
         <v>38</v>
       </c>
       <c r="I28" t="s">
-        <v>84</v>
+        <v>178</v>
       </c>
       <c r="J28" s="2">
-        <v>45031.191064814811</v>
+        <v>45031.19106481481</v>
       </c>
       <c r="M28" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="P28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="E29">
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G29">
         <v>23</v>
@@ -1961,30 +1961,30 @@
         <v>38</v>
       </c>
       <c r="I29" t="s">
-        <v>84</v>
+        <v>178</v>
       </c>
       <c r="J29" s="2">
-        <v>45031.191064814811</v>
+        <v>45031.19106481481</v>
       </c>
       <c r="M29" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="P29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="E30">
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G30">
         <v>23</v>
@@ -1993,30 +1993,30 @@
         <v>38</v>
       </c>
       <c r="I30" t="s">
-        <v>84</v>
+        <v>178</v>
       </c>
       <c r="J30" s="2">
-        <v>45031.191064814811</v>
+        <v>45031.19106481481</v>
       </c>
       <c r="M30" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="P30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="E31">
         <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G31">
         <v>24</v>
@@ -2025,30 +2025,30 @@
         <v>51</v>
       </c>
       <c r="I31" t="s">
-        <v>95</v>
+        <v>179</v>
       </c>
       <c r="J31" s="2">
-        <v>45033.697638888887</v>
+        <v>45033.69763888889</v>
       </c>
       <c r="M31" t="s">
-        <v>52</v>
+        <v>210</v>
       </c>
       <c r="P31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16">
       <c r="A32" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="E32">
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G32">
         <v>24</v>
@@ -2057,30 +2057,30 @@
         <v>51</v>
       </c>
       <c r="I32" t="s">
-        <v>95</v>
+        <v>179</v>
       </c>
       <c r="J32" s="2">
-        <v>45033.697638888887</v>
+        <v>45033.69763888889</v>
       </c>
       <c r="M32" t="s">
-        <v>52</v>
+        <v>210</v>
       </c>
       <c r="P32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16">
       <c r="A33" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="E33">
         <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G33">
         <v>24</v>
@@ -2089,30 +2089,30 @@
         <v>51</v>
       </c>
       <c r="I33" t="s">
-        <v>95</v>
+        <v>179</v>
       </c>
       <c r="J33" s="2">
-        <v>45033.697638888887</v>
+        <v>45033.69763888889</v>
       </c>
       <c r="M33" t="s">
-        <v>52</v>
+        <v>210</v>
       </c>
       <c r="P33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16">
       <c r="A34" t="s">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="E34">
         <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G34">
         <v>27</v>
@@ -2121,30 +2121,30 @@
         <v>56</v>
       </c>
       <c r="I34" t="s">
-        <v>102</v>
+        <v>180</v>
       </c>
       <c r="J34" s="2">
-        <v>45034.645821759259</v>
+        <v>45034.64582175926</v>
       </c>
       <c r="M34" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="P34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16">
       <c r="A35" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="E35">
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G35">
         <v>27</v>
@@ -2153,30 +2153,30 @@
         <v>56</v>
       </c>
       <c r="I35" t="s">
-        <v>102</v>
+        <v>180</v>
       </c>
       <c r="J35" s="2">
-        <v>45034.645821759259</v>
+        <v>45034.64582175926</v>
       </c>
       <c r="M35" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="P35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16">
       <c r="A36" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="E36">
         <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G36">
         <v>28</v>
@@ -2185,30 +2185,30 @@
         <v>57</v>
       </c>
       <c r="I36" t="s">
-        <v>107</v>
+        <v>181</v>
       </c>
       <c r="J36" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="M36" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="P36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16">
       <c r="A37" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="E37">
         <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G37">
         <v>28</v>
@@ -2217,30 +2217,30 @@
         <v>57</v>
       </c>
       <c r="I37" t="s">
-        <v>107</v>
+        <v>181</v>
       </c>
       <c r="J37" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="M37" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="P37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16">
       <c r="A38" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="E38">
         <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G38">
         <v>29</v>
@@ -2249,30 +2249,30 @@
         <v>58</v>
       </c>
       <c r="I38" t="s">
-        <v>112</v>
+        <v>182</v>
       </c>
       <c r="J38" s="2">
-        <v>45034.895462962973</v>
+        <v>45034.89546296297</v>
       </c>
       <c r="M38" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="P38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16">
       <c r="A39" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="E39">
         <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G39">
         <v>30</v>
@@ -2281,30 +2281,30 @@
         <v>59</v>
       </c>
       <c r="I39" t="s">
-        <v>115</v>
+        <v>183</v>
       </c>
       <c r="J39" s="2">
-        <v>45034.905069444438</v>
+        <v>45034.90506944444</v>
       </c>
       <c r="M39" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="P39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16">
       <c r="A40" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E40">
         <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G40">
         <v>31</v>
@@ -2313,30 +2313,30 @@
         <v>60</v>
       </c>
       <c r="I40" t="s">
-        <v>118</v>
+        <v>184</v>
       </c>
       <c r="J40" s="2">
-        <v>45034.923692129632</v>
+        <v>45034.92369212963</v>
       </c>
       <c r="M40" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="P40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16">
       <c r="A41" t="s">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E41">
         <v>40</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G41">
         <v>31</v>
@@ -2345,30 +2345,30 @@
         <v>60</v>
       </c>
       <c r="I41" t="s">
-        <v>118</v>
+        <v>184</v>
       </c>
       <c r="J41" s="2">
-        <v>45034.923692129632</v>
+        <v>45034.92369212963</v>
       </c>
       <c r="M41" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="P41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16">
       <c r="A42" t="s">
-        <v>121</v>
+        <v>56</v>
       </c>
       <c r="B42" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E42">
         <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G42">
         <v>32</v>
@@ -2377,30 +2377,30 @@
         <v>61</v>
       </c>
       <c r="I42" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="J42" s="2">
-        <v>45034.945092592592</v>
+        <v>45034.94509259259</v>
       </c>
       <c r="M42" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="P42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16">
       <c r="A43" t="s">
-        <v>124</v>
+        <v>57</v>
       </c>
       <c r="B43" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E43">
         <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G43">
         <v>32</v>
@@ -2409,30 +2409,30 @@
         <v>61</v>
       </c>
       <c r="I43" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="J43" s="2">
-        <v>45034.945092592592</v>
+        <v>45034.94509259259</v>
       </c>
       <c r="M43" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="P43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16">
       <c r="A44" t="s">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="B44" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E44">
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G44">
         <v>32</v>
@@ -2441,30 +2441,30 @@
         <v>61</v>
       </c>
       <c r="I44" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="J44" s="2">
-        <v>45034.945092592592</v>
+        <v>45034.94509259259</v>
       </c>
       <c r="M44" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="P44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16">
       <c r="A45" t="s">
-        <v>128</v>
+        <v>59</v>
       </c>
       <c r="B45" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E45">
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G45">
         <v>33</v>
@@ -2473,30 +2473,30 @@
         <v>63</v>
       </c>
       <c r="I45" t="s">
-        <v>130</v>
+        <v>186</v>
       </c>
       <c r="J45" s="2">
-        <v>45035.704583333332</v>
+        <v>45035.70458333333</v>
       </c>
       <c r="M45" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="P45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16">
       <c r="A46" t="s">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="B46" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E46">
         <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G46">
         <v>34</v>
@@ -2505,30 +2505,30 @@
         <v>64</v>
       </c>
       <c r="I46" t="s">
-        <v>133</v>
+        <v>187</v>
       </c>
       <c r="J46" s="2">
-        <v>45035.836608796293</v>
+        <v>45035.83660879629</v>
       </c>
       <c r="M46" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="P46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16">
       <c r="A47" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" t="s">
         <v>134</v>
-      </c>
-      <c r="B47" t="s">
-        <v>135</v>
       </c>
       <c r="E47">
         <v>46</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G47">
         <v>36</v>
@@ -2537,30 +2537,30 @@
         <v>77</v>
       </c>
       <c r="I47" t="s">
-        <v>136</v>
+        <v>188</v>
       </c>
       <c r="J47" s="2">
-        <v>45040.917164351849</v>
+        <v>45040.91716435185</v>
       </c>
       <c r="M47" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="P47">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16">
       <c r="A48" t="s">
-        <v>137</v>
+        <v>62</v>
       </c>
       <c r="B48" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E48">
         <v>47</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G48">
         <v>36</v>
@@ -2569,30 +2569,30 @@
         <v>77</v>
       </c>
       <c r="I48" t="s">
-        <v>136</v>
+        <v>188</v>
       </c>
       <c r="J48" s="2">
-        <v>45040.917164351849</v>
+        <v>45040.91716435185</v>
       </c>
       <c r="M48" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="P48">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16">
       <c r="A49" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
       <c r="B49" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E49">
         <v>48</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G49">
         <v>37</v>
@@ -2601,30 +2601,30 @@
         <v>78</v>
       </c>
       <c r="I49" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
       <c r="J49" s="2">
-        <v>45041.153495370367</v>
+        <v>45041.15349537037</v>
       </c>
       <c r="M49" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="P49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16">
       <c r="A50" t="s">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="B50" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E50">
         <v>49</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G50">
         <v>38</v>
@@ -2633,30 +2633,30 @@
         <v>80</v>
       </c>
       <c r="I50" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="J50" s="2">
-        <v>45041.887627314813</v>
+        <v>45041.88762731481</v>
       </c>
       <c r="M50" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="P50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16">
       <c r="A51" t="s">
-        <v>145</v>
+        <v>65</v>
       </c>
       <c r="B51" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E51">
         <v>50</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G51">
         <v>39</v>
@@ -2665,30 +2665,30 @@
         <v>81</v>
       </c>
       <c r="I51" t="s">
-        <v>147</v>
+        <v>191</v>
       </c>
       <c r="J51" s="2">
-        <v>45041.988726851851</v>
+        <v>45041.98872685185</v>
       </c>
       <c r="M51" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="P51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16">
       <c r="A52" t="s">
-        <v>148</v>
+        <v>66</v>
       </c>
       <c r="B52" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E52">
         <v>51</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G52">
         <v>41</v>
@@ -2697,30 +2697,30 @@
         <v>83</v>
       </c>
       <c r="I52" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="J52" s="2">
-        <v>45042.864039351851</v>
+        <v>45042.86403935185</v>
       </c>
       <c r="M52" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="P52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16">
       <c r="A53" t="s">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="B53" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="E53">
         <v>52</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G53">
         <v>42</v>
@@ -2729,30 +2729,30 @@
         <v>84</v>
       </c>
       <c r="I53" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="J53" s="2">
-        <v>45042.982534722221</v>
+        <v>45042.98253472222</v>
       </c>
       <c r="M53" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="P53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16">
       <c r="A54" t="s">
-        <v>154</v>
+        <v>68</v>
       </c>
       <c r="B54" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="E54">
         <v>53</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G54">
         <v>44</v>
@@ -2761,30 +2761,30 @@
         <v>87</v>
       </c>
       <c r="I54" t="s">
-        <v>156</v>
+        <v>194</v>
       </c>
       <c r="J54" s="2">
-        <v>45043.746307870373</v>
+        <v>45043.74630787037</v>
       </c>
       <c r="M54" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="P54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16">
       <c r="A55" t="s">
-        <v>157</v>
+        <v>69</v>
       </c>
       <c r="B55" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="E55">
         <v>54</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G55">
         <v>45</v>
@@ -2793,30 +2793,30 @@
         <v>88</v>
       </c>
       <c r="I55" t="s">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="J55" s="2">
-        <v>45043.912523148138</v>
+        <v>45043.91252314814</v>
       </c>
       <c r="M55" t="s">
-        <v>52</v>
+        <v>210</v>
       </c>
       <c r="P55">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16">
       <c r="A56" t="s">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="B56" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="E56">
         <v>55</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G56">
         <v>46</v>
@@ -2825,30 +2825,30 @@
         <v>90</v>
       </c>
       <c r="I56" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="J56" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="M56" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="P56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16">
       <c r="A57" t="s">
-        <v>163</v>
+        <v>71</v>
       </c>
       <c r="B57" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="E57">
         <v>56</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G57">
         <v>46</v>
@@ -2857,30 +2857,30 @@
         <v>90</v>
       </c>
       <c r="I57" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="J57" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="M57" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="P57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16">
       <c r="A58" t="s">
-        <v>165</v>
+        <v>72</v>
       </c>
       <c r="B58" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="E58">
         <v>57</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G58">
         <v>50</v>
@@ -2889,30 +2889,30 @@
         <v>94</v>
       </c>
       <c r="I58" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="J58" s="2">
-        <v>45044.870127314818</v>
+        <v>45044.87012731482</v>
       </c>
       <c r="M58" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="P58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16">
       <c r="A59" t="s">
-        <v>168</v>
+        <v>73</v>
       </c>
       <c r="B59" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="E59">
         <v>58</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G59">
         <v>50</v>
@@ -2921,30 +2921,30 @@
         <v>94</v>
       </c>
       <c r="I59" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="J59" s="2">
-        <v>45044.870127314818</v>
+        <v>45044.87012731482</v>
       </c>
       <c r="M59" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="P59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16">
       <c r="A60" t="s">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="B60" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="E60">
         <v>59</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G60">
         <v>50</v>
@@ -2953,30 +2953,30 @@
         <v>94</v>
       </c>
       <c r="I60" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="J60" s="2">
-        <v>45044.870127314818</v>
+        <v>45044.87012731482</v>
       </c>
       <c r="M60" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="P60">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16">
       <c r="A61" t="s">
-        <v>172</v>
+        <v>75</v>
       </c>
       <c r="B61" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="E61">
         <v>60</v>
       </c>
       <c r="F61" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G61">
         <v>50</v>
@@ -2985,30 +2985,30 @@
         <v>94</v>
       </c>
       <c r="I61" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="J61" s="2">
-        <v>45044.870127314818</v>
+        <v>45044.87012731482</v>
       </c>
       <c r="M61" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="P61">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16">
       <c r="A62" t="s">
-        <v>174</v>
+        <v>76</v>
       </c>
       <c r="B62" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="E62">
         <v>61</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G62">
         <v>51</v>
@@ -3017,30 +3017,30 @@
         <v>95</v>
       </c>
       <c r="I62" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="J62" s="2">
-        <v>45044.875173611108</v>
+        <v>45044.87517361111</v>
       </c>
       <c r="M62" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="P62">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16">
       <c r="A63" t="s">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="B63" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="E63">
         <v>62</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G63">
         <v>52</v>
@@ -3049,30 +3049,30 @@
         <v>96</v>
       </c>
       <c r="I63" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="J63" s="2">
-        <v>45044.898946759262</v>
+        <v>45044.89894675926</v>
       </c>
       <c r="M63" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="P63">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16">
       <c r="A64" t="s">
-        <v>180</v>
+        <v>78</v>
       </c>
       <c r="B64" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="E64">
         <v>63</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G64">
         <v>53</v>
@@ -3081,30 +3081,30 @@
         <v>98</v>
       </c>
       <c r="I64" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="J64" s="2">
-        <v>45044.941967592589</v>
+        <v>45044.94196759259</v>
       </c>
       <c r="M64" t="s">
-        <v>52</v>
+        <v>210</v>
       </c>
       <c r="P64">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16">
       <c r="A65" t="s">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="B65" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="E65">
         <v>64</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G65">
         <v>54</v>
@@ -3113,30 +3113,30 @@
         <v>99</v>
       </c>
       <c r="I65" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="J65" s="2">
-        <v>45044.956180555557</v>
+        <v>45044.95618055556</v>
       </c>
       <c r="M65" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="P65">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16">
       <c r="A66" t="s">
-        <v>186</v>
+        <v>80</v>
       </c>
       <c r="B66" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="E66">
         <v>65</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G66">
         <v>55</v>
@@ -3145,30 +3145,30 @@
         <v>100</v>
       </c>
       <c r="I66" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="J66" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="M66" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="P66">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16">
       <c r="A67" t="s">
-        <v>189</v>
+        <v>81</v>
       </c>
       <c r="B67" t="s">
-        <v>190</v>
+        <v>154</v>
       </c>
       <c r="E67">
         <v>66</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G67">
         <v>57</v>
@@ -3177,30 +3177,30 @@
         <v>102</v>
       </c>
       <c r="I67" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="J67" s="2">
-        <v>45045.004791666674</v>
+        <v>45045.00479166667</v>
       </c>
       <c r="M67" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="P67">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16">
       <c r="A68" t="s">
-        <v>192</v>
+        <v>82</v>
       </c>
       <c r="B68" t="s">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="E68">
         <v>67</v>
       </c>
       <c r="F68" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G68">
         <v>60</v>
@@ -3209,30 +3209,30 @@
         <v>105</v>
       </c>
       <c r="I68" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="J68" s="2">
-        <v>45045.136759259258</v>
+        <v>45045.13675925926</v>
       </c>
       <c r="M68" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="P68">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16">
       <c r="A69" t="s">
-        <v>195</v>
+        <v>83</v>
       </c>
       <c r="B69" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="E69">
         <v>68</v>
       </c>
       <c r="F69" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G69">
         <v>61</v>
@@ -3241,30 +3241,30 @@
         <v>106</v>
       </c>
       <c r="I69" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="J69" s="2">
-        <v>45045.147962962961</v>
+        <v>45045.14796296296</v>
       </c>
       <c r="M69" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="P69">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16">
       <c r="A70" t="s">
-        <v>198</v>
+        <v>84</v>
       </c>
       <c r="B70" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="E70">
         <v>69</v>
       </c>
       <c r="F70" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G70">
         <v>64</v>
@@ -3273,30 +3273,30 @@
         <v>111</v>
       </c>
       <c r="I70" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="J70" s="2">
-        <v>45045.679583333331</v>
+        <v>45045.67958333333</v>
       </c>
       <c r="M70" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="P70">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16">
       <c r="A71" t="s">
-        <v>201</v>
+        <v>85</v>
       </c>
       <c r="B71" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="E71">
         <v>70</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G71">
         <v>67</v>
@@ -3305,30 +3305,30 @@
         <v>115</v>
       </c>
       <c r="I71" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="J71" s="2">
-        <v>45048.691724537042</v>
+        <v>45048.69172453704</v>
       </c>
       <c r="M71" t="s">
-        <v>52</v>
+        <v>210</v>
       </c>
       <c r="P71">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16">
       <c r="A72" t="s">
-        <v>204</v>
+        <v>86</v>
       </c>
       <c r="B72" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
       <c r="E72">
         <v>71</v>
       </c>
       <c r="F72" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G72">
         <v>70</v>
@@ -3337,30 +3337,30 @@
         <v>119</v>
       </c>
       <c r="I72" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J72" s="2">
-        <v>45059.227662037039</v>
+        <v>45059.22766203704</v>
       </c>
       <c r="M72" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="P72">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16">
       <c r="A73" t="s">
-        <v>207</v>
+        <v>87</v>
       </c>
       <c r="B73" t="s">
-        <v>208</v>
+        <v>160</v>
       </c>
       <c r="E73">
         <v>72</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G73">
         <v>70</v>
@@ -3369,30 +3369,30 @@
         <v>119</v>
       </c>
       <c r="I73" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J73" s="2">
-        <v>45059.227662037039</v>
+        <v>45059.22766203704</v>
       </c>
       <c r="M73" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="P73">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16">
       <c r="A74" t="s">
-        <v>209</v>
+        <v>88</v>
       </c>
       <c r="B74" t="s">
-        <v>210</v>
+        <v>161</v>
       </c>
       <c r="E74">
         <v>73</v>
       </c>
       <c r="F74" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="G74">
         <v>70</v>
@@ -3401,19 +3401,23 @@
         <v>119</v>
       </c>
       <c r="I74" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J74" s="2">
-        <v>45059.227662037039</v>
+        <v>45059.22766203704</v>
       </c>
       <c r="M74" t="s">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="P74">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <hyperlinks>
+    <hyperlink ref="A27" r:id="rId1"/>
+    <hyperlink ref="A28" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/files/separadas/repeat_p39.xlsx
+++ b/files/separadas/repeat_p39.xlsx
@@ -756,7 +756,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="7">
@@ -2196,7 +2196,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="37">
@@ -2244,7 +2244,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="38">
@@ -3588,7 +3588,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="66">
@@ -3780,7 +3780,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="70">
